--- a/www/terminologies/CodeSystem-terminologie-nabm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-nabm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="2187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="2200">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>V97</t>
+    <t>V98</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-02T00:00:00+00:00</t>
+    <t>2025-06-20T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>1043</t>
+    <t>1050</t>
   </si>
   <si>
     <t>Code</t>
@@ -356,7 +356,7 @@
     <t>1133</t>
   </si>
   <si>
-    <t>ALBUMINE (ALBUMINURIE):</t>
+    <t>ALBUMINE (ALBUMINURIE)</t>
   </si>
   <si>
     <t>1024</t>
@@ -1154,6 +1154,12 @@
     <t>UR. : PORPHYRINES : RECH.</t>
   </si>
   <si>
+    <t>5313</t>
+  </si>
+  <si>
+    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: 3 SITES (IST SANS ORDO)</t>
+  </si>
+  <si>
     <t>4006</t>
   </si>
   <si>
@@ -1208,6 +1214,12 @@
     <t>LCR : DYSGLOBULINORACHIE : ELECTROPHORESE ET TYPAGE</t>
   </si>
   <si>
+    <t>5312</t>
+  </si>
+  <si>
+    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: - 2 SITES (IST SANS ORDO)</t>
+  </si>
+  <si>
     <t>0638</t>
   </si>
   <si>
@@ -1692,6 +1704,12 @@
   </si>
   <si>
     <t>EX MICROBIO SECRETIONS, ULCERATIONS, EXSUDATS (ANO) GENITAUX FEMME (PV)</t>
+  </si>
+  <si>
+    <t>5311</t>
+  </si>
+  <si>
+    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: - 1 SITE (IST SANS ORD)</t>
   </si>
   <si>
     <t>5226</t>
@@ -4058,6 +4076,12 @@
     <t>TEST DE RESISTANCE GENOTYPIQUE AUX ANTIRETROVIRAUX</t>
   </si>
   <si>
+    <t>5501</t>
+  </si>
+  <si>
+    <t>HEPATITE B (VHB): DEPISTAGE ET/OU DIAGNOSTIC IGM ANTI HBC (IST SANS ORDO)</t>
+  </si>
+  <si>
     <t>1498</t>
   </si>
   <si>
@@ -4130,6 +4154,12 @@
     <t>RESISTANCES AUX MACROLIDES CHEZ M.GENITALIUM</t>
   </si>
   <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>HEPATITE B (VHB): DEPISTAGE ET/OU DIAGNOSTIC (IST SANS ORDO)</t>
+  </si>
+  <si>
     <t>0806</t>
   </si>
   <si>
@@ -4412,9 +4442,6 @@
     <t>UR. : UROBILINE : RECH.</t>
   </si>
   <si>
-    <t>1050</t>
-  </si>
-  <si>
     <t>MESURE DE L'ACTIVITE D'ADAMTS 13</t>
   </si>
   <si>
@@ -4439,7 +4466,7 @@
     <t>5303</t>
   </si>
   <si>
-    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: AMPLIFCATION GENIQUE -  3 SITES</t>
+    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: AMPLIFCATION GENIQUE - 3 SITES</t>
   </si>
   <si>
     <t>1627</t>
@@ -4523,7 +4550,7 @@
     <t>5302</t>
   </si>
   <si>
-    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: AMPLIFCATION GENIQUE -  2 SITES</t>
+    <t>C. TRACHOMATIS ET/OU N. GONORRHOEAE: AMPLIFCATION GENIQUE - 2 SITES</t>
   </si>
   <si>
     <t>2012</t>
@@ -6038,6 +6065,12 @@
     <t>TULAREMIE : SD</t>
   </si>
   <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>SYPHILIS: SD TEST NON TREPONEMIQUE(TNT) TITRAGE (VDRL, RPR,  ) (IST SANS ORDO)</t>
+  </si>
+  <si>
     <t>07-02</t>
   </si>
   <si>
@@ -6144,6 +6177,12 @@
   </si>
   <si>
     <t>MYCOPLASMOSES RESPIRATOIRES : SD : IGM</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>SYPHILIS:SD DE DEPISTAGE_ TEST TREPONEMIQUE (TT)(IST SANS ORDO</t>
   </si>
   <si>
     <t>1465</t>
@@ -7225,7 +7264,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1044"/>
+  <dimension ref="A1:D1051"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10675,19 +10714,17 @@
       <c r="C287" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="D287" t="s" s="2">
-        <v>667</v>
-      </c>
+      <c r="D287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B288" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C288" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="C288" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="D288" s="2"/>
     </row>
@@ -10696,10 +10733,10 @@
         <v>95</v>
       </c>
       <c r="B289" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C289" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="C289" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="D289" s="2"/>
     </row>
@@ -10708,12 +10745,14 @@
         <v>95</v>
       </c>
       <c r="B290" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C290" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="D290" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="D290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
@@ -10869,19 +10908,17 @@
       <c r="C303" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="D303" t="s" s="2">
-        <v>700</v>
-      </c>
+      <c r="D303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B304" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="C304" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="C304" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="D304" s="2"/>
     </row>
@@ -10890,10 +10927,10 @@
         <v>95</v>
       </c>
       <c r="B305" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C305" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="C305" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="D305" s="2"/>
     </row>
@@ -10902,12 +10939,14 @@
         <v>95</v>
       </c>
       <c r="B306" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C306" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="D306" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="D306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
@@ -11039,19 +11078,17 @@
       <c r="C317" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="D317" t="s" s="2">
-        <v>729</v>
-      </c>
+      <c r="D317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B318" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="C318" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="C318" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="D318" s="2"/>
     </row>
@@ -11060,10 +11097,10 @@
         <v>95</v>
       </c>
       <c r="B319" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C319" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="C319" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="D319" s="2"/>
     </row>
@@ -11072,12 +11109,14 @@
         <v>95</v>
       </c>
       <c r="B320" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="C320" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="D320" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="D320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
@@ -11161,19 +11200,17 @@
       <c r="C327" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="D327" t="s" s="2">
-        <v>750</v>
-      </c>
+      <c r="D327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B328" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="C328" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="C328" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -11182,10 +11219,10 @@
         <v>95</v>
       </c>
       <c r="B329" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="C329" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="C329" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="D329" s="2"/>
     </row>
@@ -11194,12 +11231,14 @@
         <v>95</v>
       </c>
       <c r="B330" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="C330" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="D330" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="D330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
@@ -11283,19 +11322,17 @@
       <c r="C337" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="D337" t="s" s="2">
-        <v>771</v>
-      </c>
+      <c r="D337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B338" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C338" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="C338" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="D338" s="2"/>
     </row>
@@ -11304,10 +11341,10 @@
         <v>95</v>
       </c>
       <c r="B339" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="C339" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="C339" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="D339" s="2"/>
     </row>
@@ -11316,12 +11353,14 @@
         <v>95</v>
       </c>
       <c r="B340" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="C340" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="C340" t="s" s="2">
+      <c r="D340" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="D340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
@@ -11537,19 +11576,17 @@
       <c r="C358" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="D358" t="s" s="2">
-        <v>814</v>
-      </c>
+      <c r="D358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B359" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="C359" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="C359" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="D359" s="2"/>
     </row>
@@ -11558,10 +11595,10 @@
         <v>95</v>
       </c>
       <c r="B360" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="C360" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="C360" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="D360" s="2"/>
     </row>
@@ -11570,12 +11607,14 @@
         <v>95</v>
       </c>
       <c r="B361" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="C361" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="D361" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="D361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
@@ -11779,19 +11818,17 @@
       <c r="C378" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="D378" t="s" s="2">
-        <v>855</v>
-      </c>
+      <c r="D378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B379" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="C379" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="C379" t="s" s="2">
-        <v>857</v>
       </c>
       <c r="D379" s="2"/>
     </row>
@@ -11800,10 +11837,10 @@
         <v>95</v>
       </c>
       <c r="B380" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="C380" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="C380" t="s" s="2">
-        <v>859</v>
       </c>
       <c r="D380" s="2"/>
     </row>
@@ -11812,12 +11849,14 @@
         <v>95</v>
       </c>
       <c r="B381" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="C381" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="D381" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="D381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
@@ -12604,10 +12643,10 @@
         <v>95</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>10</v>
+        <v>992</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>10</v>
+        <v>993</v>
       </c>
       <c r="D447" s="2"/>
     </row>
@@ -12616,10 +12655,10 @@
         <v>95</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D448" s="2"/>
     </row>
@@ -12628,10 +12667,10 @@
         <v>95</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D449" s="2"/>
     </row>
@@ -12640,10 +12679,10 @@
         <v>95</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>996</v>
+        <v>10</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>997</v>
+        <v>10</v>
       </c>
       <c r="D450" s="2"/>
     </row>
@@ -15508,10 +15547,10 @@
         <v>95</v>
       </c>
       <c r="B689" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C689" t="s" s="2">
         <v>1474</v>
-      </c>
-      <c r="C689" t="s" s="2">
-        <v>1475</v>
       </c>
       <c r="D689" s="2"/>
     </row>
@@ -15520,10 +15559,10 @@
         <v>95</v>
       </c>
       <c r="B690" t="s" s="2">
+        <v>1475</v>
+      </c>
+      <c r="C690" t="s" s="2">
         <v>1476</v>
-      </c>
-      <c r="C690" t="s" s="2">
-        <v>1477</v>
       </c>
       <c r="D690" s="2"/>
     </row>
@@ -15532,10 +15571,10 @@
         <v>95</v>
       </c>
       <c r="B691" t="s" s="2">
+        <v>1477</v>
+      </c>
+      <c r="C691" t="s" s="2">
         <v>1478</v>
-      </c>
-      <c r="C691" t="s" s="2">
-        <v>1479</v>
       </c>
       <c r="D691" s="2"/>
     </row>
@@ -15544,10 +15583,10 @@
         <v>95</v>
       </c>
       <c r="B692" t="s" s="2">
+        <v>1479</v>
+      </c>
+      <c r="C692" t="s" s="2">
         <v>1480</v>
-      </c>
-      <c r="C692" t="s" s="2">
-        <v>1481</v>
       </c>
       <c r="D692" s="2"/>
     </row>
@@ -15556,10 +15595,10 @@
         <v>95</v>
       </c>
       <c r="B693" t="s" s="2">
+        <v>1481</v>
+      </c>
+      <c r="C693" t="s" s="2">
         <v>1482</v>
-      </c>
-      <c r="C693" t="s" s="2">
-        <v>1483</v>
       </c>
       <c r="D693" s="2"/>
     </row>
@@ -15568,10 +15607,10 @@
         <v>95</v>
       </c>
       <c r="B694" t="s" s="2">
+        <v>1483</v>
+      </c>
+      <c r="C694" t="s" s="2">
         <v>1484</v>
-      </c>
-      <c r="C694" t="s" s="2">
-        <v>1485</v>
       </c>
       <c r="D694" s="2"/>
     </row>
@@ -15580,10 +15619,10 @@
         <v>95</v>
       </c>
       <c r="B695" t="s" s="2">
+        <v>1485</v>
+      </c>
+      <c r="C695" t="s" s="2">
         <v>1486</v>
-      </c>
-      <c r="C695" t="s" s="2">
-        <v>1487</v>
       </c>
       <c r="D695" s="2"/>
     </row>
@@ -15592,10 +15631,10 @@
         <v>95</v>
       </c>
       <c r="B696" t="s" s="2">
+        <v>1487</v>
+      </c>
+      <c r="C696" t="s" s="2">
         <v>1488</v>
-      </c>
-      <c r="C696" t="s" s="2">
-        <v>1489</v>
       </c>
       <c r="D696" s="2"/>
     </row>
@@ -15604,10 +15643,10 @@
         <v>95</v>
       </c>
       <c r="B697" t="s" s="2">
+        <v>1489</v>
+      </c>
+      <c r="C697" t="s" s="2">
         <v>1490</v>
-      </c>
-      <c r="C697" t="s" s="2">
-        <v>1491</v>
       </c>
       <c r="D697" s="2"/>
     </row>
@@ -15616,10 +15655,10 @@
         <v>95</v>
       </c>
       <c r="B698" t="s" s="2">
+        <v>1491</v>
+      </c>
+      <c r="C698" t="s" s="2">
         <v>1492</v>
-      </c>
-      <c r="C698" t="s" s="2">
-        <v>1493</v>
       </c>
       <c r="D698" s="2"/>
     </row>
@@ -15628,10 +15667,10 @@
         <v>95</v>
       </c>
       <c r="B699" t="s" s="2">
+        <v>1493</v>
+      </c>
+      <c r="C699" t="s" s="2">
         <v>1494</v>
-      </c>
-      <c r="C699" t="s" s="2">
-        <v>1495</v>
       </c>
       <c r="D699" s="2"/>
     </row>
@@ -15640,10 +15679,10 @@
         <v>95</v>
       </c>
       <c r="B700" t="s" s="2">
+        <v>1495</v>
+      </c>
+      <c r="C700" t="s" s="2">
         <v>1496</v>
-      </c>
-      <c r="C700" t="s" s="2">
-        <v>1497</v>
       </c>
       <c r="D700" s="2"/>
     </row>
@@ -15652,10 +15691,10 @@
         <v>95</v>
       </c>
       <c r="B701" t="s" s="2">
+        <v>1497</v>
+      </c>
+      <c r="C701" t="s" s="2">
         <v>1498</v>
-      </c>
-      <c r="C701" t="s" s="2">
-        <v>1499</v>
       </c>
       <c r="D701" s="2"/>
     </row>
@@ -15664,10 +15703,10 @@
         <v>95</v>
       </c>
       <c r="B702" t="s" s="2">
+        <v>1499</v>
+      </c>
+      <c r="C702" t="s" s="2">
         <v>1500</v>
-      </c>
-      <c r="C702" t="s" s="2">
-        <v>1501</v>
       </c>
       <c r="D702" s="2"/>
     </row>
@@ -15676,10 +15715,10 @@
         <v>95</v>
       </c>
       <c r="B703" t="s" s="2">
+        <v>1501</v>
+      </c>
+      <c r="C703" t="s" s="2">
         <v>1502</v>
-      </c>
-      <c r="C703" t="s" s="2">
-        <v>1503</v>
       </c>
       <c r="D703" s="2"/>
     </row>
@@ -15688,10 +15727,10 @@
         <v>95</v>
       </c>
       <c r="B704" t="s" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C704" t="s" s="2">
         <v>1504</v>
-      </c>
-      <c r="C704" t="s" s="2">
-        <v>1505</v>
       </c>
       <c r="D704" s="2"/>
     </row>
@@ -15700,10 +15739,10 @@
         <v>95</v>
       </c>
       <c r="B705" t="s" s="2">
+        <v>1505</v>
+      </c>
+      <c r="C705" t="s" s="2">
         <v>1506</v>
-      </c>
-      <c r="C705" t="s" s="2">
-        <v>1507</v>
       </c>
       <c r="D705" s="2"/>
     </row>
@@ -15712,10 +15751,10 @@
         <v>95</v>
       </c>
       <c r="B706" t="s" s="2">
+        <v>1507</v>
+      </c>
+      <c r="C706" t="s" s="2">
         <v>1508</v>
-      </c>
-      <c r="C706" t="s" s="2">
-        <v>1509</v>
       </c>
       <c r="D706" s="2"/>
     </row>
@@ -15724,10 +15763,10 @@
         <v>95</v>
       </c>
       <c r="B707" t="s" s="2">
+        <v>1509</v>
+      </c>
+      <c r="C707" t="s" s="2">
         <v>1510</v>
-      </c>
-      <c r="C707" t="s" s="2">
-        <v>1511</v>
       </c>
       <c r="D707" s="2"/>
     </row>
@@ -15736,10 +15775,10 @@
         <v>95</v>
       </c>
       <c r="B708" t="s" s="2">
+        <v>1511</v>
+      </c>
+      <c r="C708" t="s" s="2">
         <v>1512</v>
-      </c>
-      <c r="C708" t="s" s="2">
-        <v>1513</v>
       </c>
       <c r="D708" s="2"/>
     </row>
@@ -15748,10 +15787,10 @@
         <v>95</v>
       </c>
       <c r="B709" t="s" s="2">
+        <v>1513</v>
+      </c>
+      <c r="C709" t="s" s="2">
         <v>1514</v>
-      </c>
-      <c r="C709" t="s" s="2">
-        <v>1515</v>
       </c>
       <c r="D709" s="2"/>
     </row>
@@ -15760,10 +15799,10 @@
         <v>95</v>
       </c>
       <c r="B710" t="s" s="2">
+        <v>1515</v>
+      </c>
+      <c r="C710" t="s" s="2">
         <v>1516</v>
-      </c>
-      <c r="C710" t="s" s="2">
-        <v>1517</v>
       </c>
       <c r="D710" s="2"/>
     </row>
@@ -15772,10 +15811,10 @@
         <v>95</v>
       </c>
       <c r="B711" t="s" s="2">
+        <v>1517</v>
+      </c>
+      <c r="C711" t="s" s="2">
         <v>1518</v>
-      </c>
-      <c r="C711" t="s" s="2">
-        <v>1519</v>
       </c>
       <c r="D711" s="2"/>
     </row>
@@ -15784,10 +15823,10 @@
         <v>95</v>
       </c>
       <c r="B712" t="s" s="2">
+        <v>1519</v>
+      </c>
+      <c r="C712" t="s" s="2">
         <v>1520</v>
-      </c>
-      <c r="C712" t="s" s="2">
-        <v>1521</v>
       </c>
       <c r="D712" s="2"/>
     </row>
@@ -15796,10 +15835,10 @@
         <v>95</v>
       </c>
       <c r="B713" t="s" s="2">
+        <v>1521</v>
+      </c>
+      <c r="C713" t="s" s="2">
         <v>1522</v>
-      </c>
-      <c r="C713" t="s" s="2">
-        <v>1523</v>
       </c>
       <c r="D713" s="2"/>
     </row>
@@ -15808,10 +15847,10 @@
         <v>95</v>
       </c>
       <c r="B714" t="s" s="2">
+        <v>1523</v>
+      </c>
+      <c r="C714" t="s" s="2">
         <v>1524</v>
-      </c>
-      <c r="C714" t="s" s="2">
-        <v>1525</v>
       </c>
       <c r="D714" s="2"/>
     </row>
@@ -15820,10 +15859,10 @@
         <v>95</v>
       </c>
       <c r="B715" t="s" s="2">
+        <v>1525</v>
+      </c>
+      <c r="C715" t="s" s="2">
         <v>1526</v>
-      </c>
-      <c r="C715" t="s" s="2">
-        <v>1527</v>
       </c>
       <c r="D715" s="2"/>
     </row>
@@ -15832,10 +15871,10 @@
         <v>95</v>
       </c>
       <c r="B716" t="s" s="2">
+        <v>1527</v>
+      </c>
+      <c r="C716" t="s" s="2">
         <v>1528</v>
-      </c>
-      <c r="C716" t="s" s="2">
-        <v>1529</v>
       </c>
       <c r="D716" s="2"/>
     </row>
@@ -15844,10 +15883,10 @@
         <v>95</v>
       </c>
       <c r="B717" t="s" s="2">
+        <v>1529</v>
+      </c>
+      <c r="C717" t="s" s="2">
         <v>1530</v>
-      </c>
-      <c r="C717" t="s" s="2">
-        <v>1531</v>
       </c>
       <c r="D717" s="2"/>
     </row>
@@ -15856,10 +15895,10 @@
         <v>95</v>
       </c>
       <c r="B718" t="s" s="2">
+        <v>1531</v>
+      </c>
+      <c r="C718" t="s" s="2">
         <v>1532</v>
-      </c>
-      <c r="C718" t="s" s="2">
-        <v>1533</v>
       </c>
       <c r="D718" s="2"/>
     </row>
@@ -15868,10 +15907,10 @@
         <v>95</v>
       </c>
       <c r="B719" t="s" s="2">
+        <v>1533</v>
+      </c>
+      <c r="C719" t="s" s="2">
         <v>1534</v>
-      </c>
-      <c r="C719" t="s" s="2">
-        <v>1535</v>
       </c>
       <c r="D719" s="2"/>
     </row>
@@ -15880,10 +15919,10 @@
         <v>95</v>
       </c>
       <c r="B720" t="s" s="2">
+        <v>1535</v>
+      </c>
+      <c r="C720" t="s" s="2">
         <v>1536</v>
-      </c>
-      <c r="C720" t="s" s="2">
-        <v>1537</v>
       </c>
       <c r="D720" s="2"/>
     </row>
@@ -15892,10 +15931,10 @@
         <v>95</v>
       </c>
       <c r="B721" t="s" s="2">
+        <v>1537</v>
+      </c>
+      <c r="C721" t="s" s="2">
         <v>1538</v>
-      </c>
-      <c r="C721" t="s" s="2">
-        <v>1539</v>
       </c>
       <c r="D721" s="2"/>
     </row>
@@ -15904,10 +15943,10 @@
         <v>95</v>
       </c>
       <c r="B722" t="s" s="2">
+        <v>1539</v>
+      </c>
+      <c r="C722" t="s" s="2">
         <v>1540</v>
-      </c>
-      <c r="C722" t="s" s="2">
-        <v>1541</v>
       </c>
       <c r="D722" s="2"/>
     </row>
@@ -15916,10 +15955,10 @@
         <v>95</v>
       </c>
       <c r="B723" t="s" s="2">
+        <v>1541</v>
+      </c>
+      <c r="C723" t="s" s="2">
         <v>1542</v>
-      </c>
-      <c r="C723" t="s" s="2">
-        <v>1543</v>
       </c>
       <c r="D723" s="2"/>
     </row>
@@ -15928,10 +15967,10 @@
         <v>95</v>
       </c>
       <c r="B724" t="s" s="2">
+        <v>1543</v>
+      </c>
+      <c r="C724" t="s" s="2">
         <v>1544</v>
-      </c>
-      <c r="C724" t="s" s="2">
-        <v>1545</v>
       </c>
       <c r="D724" s="2"/>
     </row>
@@ -15940,10 +15979,10 @@
         <v>95</v>
       </c>
       <c r="B725" t="s" s="2">
+        <v>1545</v>
+      </c>
+      <c r="C725" t="s" s="2">
         <v>1546</v>
-      </c>
-      <c r="C725" t="s" s="2">
-        <v>1547</v>
       </c>
       <c r="D725" s="2"/>
     </row>
@@ -15952,10 +15991,10 @@
         <v>95</v>
       </c>
       <c r="B726" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="C726" t="s" s="2">
         <v>1548</v>
-      </c>
-      <c r="C726" t="s" s="2">
-        <v>1549</v>
       </c>
       <c r="D726" s="2"/>
     </row>
@@ -15964,10 +16003,10 @@
         <v>95</v>
       </c>
       <c r="B727" t="s" s="2">
+        <v>1549</v>
+      </c>
+      <c r="C727" t="s" s="2">
         <v>1550</v>
-      </c>
-      <c r="C727" t="s" s="2">
-        <v>1551</v>
       </c>
       <c r="D727" s="2"/>
     </row>
@@ -15976,10 +16015,10 @@
         <v>95</v>
       </c>
       <c r="B728" t="s" s="2">
+        <v>1551</v>
+      </c>
+      <c r="C728" t="s" s="2">
         <v>1552</v>
-      </c>
-      <c r="C728" t="s" s="2">
-        <v>1553</v>
       </c>
       <c r="D728" s="2"/>
     </row>
@@ -15988,10 +16027,10 @@
         <v>95</v>
       </c>
       <c r="B729" t="s" s="2">
+        <v>1553</v>
+      </c>
+      <c r="C729" t="s" s="2">
         <v>1554</v>
-      </c>
-      <c r="C729" t="s" s="2">
-        <v>1555</v>
       </c>
       <c r="D729" s="2"/>
     </row>
@@ -16000,10 +16039,10 @@
         <v>95</v>
       </c>
       <c r="B730" t="s" s="2">
+        <v>1555</v>
+      </c>
+      <c r="C730" t="s" s="2">
         <v>1556</v>
-      </c>
-      <c r="C730" t="s" s="2">
-        <v>1557</v>
       </c>
       <c r="D730" s="2"/>
     </row>
@@ -16012,10 +16051,10 @@
         <v>95</v>
       </c>
       <c r="B731" t="s" s="2">
+        <v>1557</v>
+      </c>
+      <c r="C731" t="s" s="2">
         <v>1558</v>
-      </c>
-      <c r="C731" t="s" s="2">
-        <v>1559</v>
       </c>
       <c r="D731" s="2"/>
     </row>
@@ -16024,10 +16063,10 @@
         <v>95</v>
       </c>
       <c r="B732" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="C732" t="s" s="2">
         <v>1560</v>
-      </c>
-      <c r="C732" t="s" s="2">
-        <v>1561</v>
       </c>
       <c r="D732" s="2"/>
     </row>
@@ -16036,10 +16075,10 @@
         <v>95</v>
       </c>
       <c r="B733" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="C733" t="s" s="2">
         <v>1562</v>
-      </c>
-      <c r="C733" t="s" s="2">
-        <v>1563</v>
       </c>
       <c r="D733" s="2"/>
     </row>
@@ -16048,10 +16087,10 @@
         <v>95</v>
       </c>
       <c r="B734" t="s" s="2">
+        <v>1563</v>
+      </c>
+      <c r="C734" t="s" s="2">
         <v>1564</v>
-      </c>
-      <c r="C734" t="s" s="2">
-        <v>1565</v>
       </c>
       <c r="D734" s="2"/>
     </row>
@@ -16060,10 +16099,10 @@
         <v>95</v>
       </c>
       <c r="B735" t="s" s="2">
+        <v>1565</v>
+      </c>
+      <c r="C735" t="s" s="2">
         <v>1566</v>
-      </c>
-      <c r="C735" t="s" s="2">
-        <v>1567</v>
       </c>
       <c r="D735" s="2"/>
     </row>
@@ -16072,10 +16111,10 @@
         <v>95</v>
       </c>
       <c r="B736" t="s" s="2">
+        <v>1567</v>
+      </c>
+      <c r="C736" t="s" s="2">
         <v>1568</v>
-      </c>
-      <c r="C736" t="s" s="2">
-        <v>1569</v>
       </c>
       <c r="D736" s="2"/>
     </row>
@@ -16084,10 +16123,10 @@
         <v>95</v>
       </c>
       <c r="B737" t="s" s="2">
+        <v>1569</v>
+      </c>
+      <c r="C737" t="s" s="2">
         <v>1570</v>
-      </c>
-      <c r="C737" t="s" s="2">
-        <v>1571</v>
       </c>
       <c r="D737" s="2"/>
     </row>
@@ -16096,10 +16135,10 @@
         <v>95</v>
       </c>
       <c r="B738" t="s" s="2">
+        <v>1571</v>
+      </c>
+      <c r="C738" t="s" s="2">
         <v>1572</v>
-      </c>
-      <c r="C738" t="s" s="2">
-        <v>1573</v>
       </c>
       <c r="D738" s="2"/>
     </row>
@@ -16108,10 +16147,10 @@
         <v>95</v>
       </c>
       <c r="B739" t="s" s="2">
+        <v>1573</v>
+      </c>
+      <c r="C739" t="s" s="2">
         <v>1574</v>
-      </c>
-      <c r="C739" t="s" s="2">
-        <v>1575</v>
       </c>
       <c r="D739" s="2"/>
     </row>
@@ -16120,10 +16159,10 @@
         <v>95</v>
       </c>
       <c r="B740" t="s" s="2">
+        <v>1575</v>
+      </c>
+      <c r="C740" t="s" s="2">
         <v>1576</v>
-      </c>
-      <c r="C740" t="s" s="2">
-        <v>1577</v>
       </c>
       <c r="D740" s="2"/>
     </row>
@@ -16132,10 +16171,10 @@
         <v>95</v>
       </c>
       <c r="B741" t="s" s="2">
+        <v>1577</v>
+      </c>
+      <c r="C741" t="s" s="2">
         <v>1578</v>
-      </c>
-      <c r="C741" t="s" s="2">
-        <v>1579</v>
       </c>
       <c r="D741" s="2"/>
     </row>
@@ -16144,10 +16183,10 @@
         <v>95</v>
       </c>
       <c r="B742" t="s" s="2">
+        <v>1579</v>
+      </c>
+      <c r="C742" t="s" s="2">
         <v>1580</v>
-      </c>
-      <c r="C742" t="s" s="2">
-        <v>1581</v>
       </c>
       <c r="D742" s="2"/>
     </row>
@@ -16156,10 +16195,10 @@
         <v>95</v>
       </c>
       <c r="B743" t="s" s="2">
+        <v>1581</v>
+      </c>
+      <c r="C743" t="s" s="2">
         <v>1582</v>
-      </c>
-      <c r="C743" t="s" s="2">
-        <v>1583</v>
       </c>
       <c r="D743" s="2"/>
     </row>
@@ -16168,10 +16207,10 @@
         <v>95</v>
       </c>
       <c r="B744" t="s" s="2">
+        <v>1583</v>
+      </c>
+      <c r="C744" t="s" s="2">
         <v>1584</v>
-      </c>
-      <c r="C744" t="s" s="2">
-        <v>1585</v>
       </c>
       <c r="D744" s="2"/>
     </row>
@@ -16180,10 +16219,10 @@
         <v>95</v>
       </c>
       <c r="B745" t="s" s="2">
+        <v>1585</v>
+      </c>
+      <c r="C745" t="s" s="2">
         <v>1586</v>
-      </c>
-      <c r="C745" t="s" s="2">
-        <v>1587</v>
       </c>
       <c r="D745" s="2"/>
     </row>
@@ -16192,10 +16231,10 @@
         <v>95</v>
       </c>
       <c r="B746" t="s" s="2">
+        <v>1587</v>
+      </c>
+      <c r="C746" t="s" s="2">
         <v>1588</v>
-      </c>
-      <c r="C746" t="s" s="2">
-        <v>1589</v>
       </c>
       <c r="D746" s="2"/>
     </row>
@@ -16204,10 +16243,10 @@
         <v>95</v>
       </c>
       <c r="B747" t="s" s="2">
+        <v>1589</v>
+      </c>
+      <c r="C747" t="s" s="2">
         <v>1590</v>
-      </c>
-      <c r="C747" t="s" s="2">
-        <v>1591</v>
       </c>
       <c r="D747" s="2"/>
     </row>
@@ -16216,10 +16255,10 @@
         <v>95</v>
       </c>
       <c r="B748" t="s" s="2">
+        <v>1591</v>
+      </c>
+      <c r="C748" t="s" s="2">
         <v>1592</v>
-      </c>
-      <c r="C748" t="s" s="2">
-        <v>1593</v>
       </c>
       <c r="D748" s="2"/>
     </row>
@@ -16228,10 +16267,10 @@
         <v>95</v>
       </c>
       <c r="B749" t="s" s="2">
+        <v>1593</v>
+      </c>
+      <c r="C749" t="s" s="2">
         <v>1594</v>
-      </c>
-      <c r="C749" t="s" s="2">
-        <v>1595</v>
       </c>
       <c r="D749" s="2"/>
     </row>
@@ -16240,10 +16279,10 @@
         <v>95</v>
       </c>
       <c r="B750" t="s" s="2">
+        <v>1595</v>
+      </c>
+      <c r="C750" t="s" s="2">
         <v>1596</v>
-      </c>
-      <c r="C750" t="s" s="2">
-        <v>1597</v>
       </c>
       <c r="D750" s="2"/>
     </row>
@@ -16252,10 +16291,10 @@
         <v>95</v>
       </c>
       <c r="B751" t="s" s="2">
+        <v>1597</v>
+      </c>
+      <c r="C751" t="s" s="2">
         <v>1598</v>
-      </c>
-      <c r="C751" t="s" s="2">
-        <v>1599</v>
       </c>
       <c r="D751" s="2"/>
     </row>
@@ -16264,10 +16303,10 @@
         <v>95</v>
       </c>
       <c r="B752" t="s" s="2">
+        <v>1599</v>
+      </c>
+      <c r="C752" t="s" s="2">
         <v>1600</v>
-      </c>
-      <c r="C752" t="s" s="2">
-        <v>1601</v>
       </c>
       <c r="D752" s="2"/>
     </row>
@@ -16276,10 +16315,10 @@
         <v>95</v>
       </c>
       <c r="B753" t="s" s="2">
+        <v>1601</v>
+      </c>
+      <c r="C753" t="s" s="2">
         <v>1602</v>
-      </c>
-      <c r="C753" t="s" s="2">
-        <v>1603</v>
       </c>
       <c r="D753" s="2"/>
     </row>
@@ -16288,10 +16327,10 @@
         <v>95</v>
       </c>
       <c r="B754" t="s" s="2">
+        <v>1603</v>
+      </c>
+      <c r="C754" t="s" s="2">
         <v>1604</v>
-      </c>
-      <c r="C754" t="s" s="2">
-        <v>1605</v>
       </c>
       <c r="D754" s="2"/>
     </row>
@@ -16300,10 +16339,10 @@
         <v>95</v>
       </c>
       <c r="B755" t="s" s="2">
+        <v>1605</v>
+      </c>
+      <c r="C755" t="s" s="2">
         <v>1606</v>
-      </c>
-      <c r="C755" t="s" s="2">
-        <v>1607</v>
       </c>
       <c r="D755" s="2"/>
     </row>
@@ -16312,10 +16351,10 @@
         <v>95</v>
       </c>
       <c r="B756" t="s" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C756" t="s" s="2">
         <v>1608</v>
-      </c>
-      <c r="C756" t="s" s="2">
-        <v>1609</v>
       </c>
       <c r="D756" s="2"/>
     </row>
@@ -16324,10 +16363,10 @@
         <v>95</v>
       </c>
       <c r="B757" t="s" s="2">
+        <v>1609</v>
+      </c>
+      <c r="C757" t="s" s="2">
         <v>1610</v>
-      </c>
-      <c r="C757" t="s" s="2">
-        <v>1611</v>
       </c>
       <c r="D757" s="2"/>
     </row>
@@ -16336,10 +16375,10 @@
         <v>95</v>
       </c>
       <c r="B758" t="s" s="2">
+        <v>1611</v>
+      </c>
+      <c r="C758" t="s" s="2">
         <v>1612</v>
-      </c>
-      <c r="C758" t="s" s="2">
-        <v>1613</v>
       </c>
       <c r="D758" s="2"/>
     </row>
@@ -16348,10 +16387,10 @@
         <v>95</v>
       </c>
       <c r="B759" t="s" s="2">
+        <v>1613</v>
+      </c>
+      <c r="C759" t="s" s="2">
         <v>1614</v>
-      </c>
-      <c r="C759" t="s" s="2">
-        <v>1615</v>
       </c>
       <c r="D759" s="2"/>
     </row>
@@ -16360,10 +16399,10 @@
         <v>95</v>
       </c>
       <c r="B760" t="s" s="2">
+        <v>1615</v>
+      </c>
+      <c r="C760" t="s" s="2">
         <v>1616</v>
-      </c>
-      <c r="C760" t="s" s="2">
-        <v>1617</v>
       </c>
       <c r="D760" s="2"/>
     </row>
@@ -16372,10 +16411,10 @@
         <v>95</v>
       </c>
       <c r="B761" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="C761" t="s" s="2">
         <v>1618</v>
-      </c>
-      <c r="C761" t="s" s="2">
-        <v>1619</v>
       </c>
       <c r="D761" s="2"/>
     </row>
@@ -16384,10 +16423,10 @@
         <v>95</v>
       </c>
       <c r="B762" t="s" s="2">
+        <v>1619</v>
+      </c>
+      <c r="C762" t="s" s="2">
         <v>1620</v>
-      </c>
-      <c r="C762" t="s" s="2">
-        <v>1621</v>
       </c>
       <c r="D762" s="2"/>
     </row>
@@ -16396,10 +16435,10 @@
         <v>95</v>
       </c>
       <c r="B763" t="s" s="2">
+        <v>1621</v>
+      </c>
+      <c r="C763" t="s" s="2">
         <v>1622</v>
-      </c>
-      <c r="C763" t="s" s="2">
-        <v>1623</v>
       </c>
       <c r="D763" s="2"/>
     </row>
@@ -16408,10 +16447,10 @@
         <v>95</v>
       </c>
       <c r="B764" t="s" s="2">
+        <v>1623</v>
+      </c>
+      <c r="C764" t="s" s="2">
         <v>1624</v>
-      </c>
-      <c r="C764" t="s" s="2">
-        <v>1625</v>
       </c>
       <c r="D764" s="2"/>
     </row>
@@ -16420,10 +16459,10 @@
         <v>95</v>
       </c>
       <c r="B765" t="s" s="2">
+        <v>1625</v>
+      </c>
+      <c r="C765" t="s" s="2">
         <v>1626</v>
-      </c>
-      <c r="C765" t="s" s="2">
-        <v>1627</v>
       </c>
       <c r="D765" s="2"/>
     </row>
@@ -16432,10 +16471,10 @@
         <v>95</v>
       </c>
       <c r="B766" t="s" s="2">
+        <v>1627</v>
+      </c>
+      <c r="C766" t="s" s="2">
         <v>1628</v>
-      </c>
-      <c r="C766" t="s" s="2">
-        <v>1629</v>
       </c>
       <c r="D766" s="2"/>
     </row>
@@ -16444,10 +16483,10 @@
         <v>95</v>
       </c>
       <c r="B767" t="s" s="2">
+        <v>1629</v>
+      </c>
+      <c r="C767" t="s" s="2">
         <v>1630</v>
-      </c>
-      <c r="C767" t="s" s="2">
-        <v>1631</v>
       </c>
       <c r="D767" s="2"/>
     </row>
@@ -16456,10 +16495,10 @@
         <v>95</v>
       </c>
       <c r="B768" t="s" s="2">
+        <v>1631</v>
+      </c>
+      <c r="C768" t="s" s="2">
         <v>1632</v>
-      </c>
-      <c r="C768" t="s" s="2">
-        <v>1633</v>
       </c>
       <c r="D768" s="2"/>
     </row>
@@ -16468,10 +16507,10 @@
         <v>95</v>
       </c>
       <c r="B769" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="C769" t="s" s="2">
         <v>1634</v>
-      </c>
-      <c r="C769" t="s" s="2">
-        <v>1635</v>
       </c>
       <c r="D769" s="2"/>
     </row>
@@ -16480,10 +16519,10 @@
         <v>95</v>
       </c>
       <c r="B770" t="s" s="2">
+        <v>1635</v>
+      </c>
+      <c r="C770" t="s" s="2">
         <v>1636</v>
-      </c>
-      <c r="C770" t="s" s="2">
-        <v>1637</v>
       </c>
       <c r="D770" s="2"/>
     </row>
@@ -16492,10 +16531,10 @@
         <v>95</v>
       </c>
       <c r="B771" t="s" s="2">
+        <v>1637</v>
+      </c>
+      <c r="C771" t="s" s="2">
         <v>1638</v>
-      </c>
-      <c r="C771" t="s" s="2">
-        <v>1639</v>
       </c>
       <c r="D771" s="2"/>
     </row>
@@ -16504,10 +16543,10 @@
         <v>95</v>
       </c>
       <c r="B772" t="s" s="2">
+        <v>1639</v>
+      </c>
+      <c r="C772" t="s" s="2">
         <v>1640</v>
-      </c>
-      <c r="C772" t="s" s="2">
-        <v>1641</v>
       </c>
       <c r="D772" s="2"/>
     </row>
@@ -16516,10 +16555,10 @@
         <v>95</v>
       </c>
       <c r="B773" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="C773" t="s" s="2">
         <v>1642</v>
-      </c>
-      <c r="C773" t="s" s="2">
-        <v>1643</v>
       </c>
       <c r="D773" s="2"/>
     </row>
@@ -16528,10 +16567,10 @@
         <v>95</v>
       </c>
       <c r="B774" t="s" s="2">
+        <v>1643</v>
+      </c>
+      <c r="C774" t="s" s="2">
         <v>1644</v>
-      </c>
-      <c r="C774" t="s" s="2">
-        <v>1645</v>
       </c>
       <c r="D774" s="2"/>
     </row>
@@ -16540,10 +16579,10 @@
         <v>95</v>
       </c>
       <c r="B775" t="s" s="2">
+        <v>1645</v>
+      </c>
+      <c r="C775" t="s" s="2">
         <v>1646</v>
-      </c>
-      <c r="C775" t="s" s="2">
-        <v>1647</v>
       </c>
       <c r="D775" s="2"/>
     </row>
@@ -16552,10 +16591,10 @@
         <v>95</v>
       </c>
       <c r="B776" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="C776" t="s" s="2">
         <v>1648</v>
-      </c>
-      <c r="C776" t="s" s="2">
-        <v>1649</v>
       </c>
       <c r="D776" s="2"/>
     </row>
@@ -16564,10 +16603,10 @@
         <v>95</v>
       </c>
       <c r="B777" t="s" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C777" t="s" s="2">
         <v>1650</v>
-      </c>
-      <c r="C777" t="s" s="2">
-        <v>1651</v>
       </c>
       <c r="D777" s="2"/>
     </row>
@@ -16576,10 +16615,10 @@
         <v>95</v>
       </c>
       <c r="B778" t="s" s="2">
+        <v>1651</v>
+      </c>
+      <c r="C778" t="s" s="2">
         <v>1652</v>
-      </c>
-      <c r="C778" t="s" s="2">
-        <v>1653</v>
       </c>
       <c r="D778" s="2"/>
     </row>
@@ -16588,10 +16627,10 @@
         <v>95</v>
       </c>
       <c r="B779" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="C779" t="s" s="2">
         <v>1654</v>
-      </c>
-      <c r="C779" t="s" s="2">
-        <v>1655</v>
       </c>
       <c r="D779" s="2"/>
     </row>
@@ -16600,10 +16639,10 @@
         <v>95</v>
       </c>
       <c r="B780" t="s" s="2">
+        <v>1655</v>
+      </c>
+      <c r="C780" t="s" s="2">
         <v>1656</v>
-      </c>
-      <c r="C780" t="s" s="2">
-        <v>1657</v>
       </c>
       <c r="D780" s="2"/>
     </row>
@@ -16612,10 +16651,10 @@
         <v>95</v>
       </c>
       <c r="B781" t="s" s="2">
+        <v>1657</v>
+      </c>
+      <c r="C781" t="s" s="2">
         <v>1658</v>
-      </c>
-      <c r="C781" t="s" s="2">
-        <v>1659</v>
       </c>
       <c r="D781" s="2"/>
     </row>
@@ -16624,10 +16663,10 @@
         <v>95</v>
       </c>
       <c r="B782" t="s" s="2">
+        <v>1659</v>
+      </c>
+      <c r="C782" t="s" s="2">
         <v>1660</v>
-      </c>
-      <c r="C782" t="s" s="2">
-        <v>1661</v>
       </c>
       <c r="D782" s="2"/>
     </row>
@@ -16636,10 +16675,10 @@
         <v>95</v>
       </c>
       <c r="B783" t="s" s="2">
+        <v>1661</v>
+      </c>
+      <c r="C783" t="s" s="2">
         <v>1662</v>
-      </c>
-      <c r="C783" t="s" s="2">
-        <v>1663</v>
       </c>
       <c r="D783" s="2"/>
     </row>
@@ -16648,10 +16687,10 @@
         <v>95</v>
       </c>
       <c r="B784" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="C784" t="s" s="2">
         <v>1664</v>
-      </c>
-      <c r="C784" t="s" s="2">
-        <v>1665</v>
       </c>
       <c r="D784" s="2"/>
     </row>
@@ -16660,10 +16699,10 @@
         <v>95</v>
       </c>
       <c r="B785" t="s" s="2">
+        <v>1665</v>
+      </c>
+      <c r="C785" t="s" s="2">
         <v>1666</v>
-      </c>
-      <c r="C785" t="s" s="2">
-        <v>1667</v>
       </c>
       <c r="D785" s="2"/>
     </row>
@@ -16672,10 +16711,10 @@
         <v>95</v>
       </c>
       <c r="B786" t="s" s="2">
+        <v>1667</v>
+      </c>
+      <c r="C786" t="s" s="2">
         <v>1668</v>
-      </c>
-      <c r="C786" t="s" s="2">
-        <v>1669</v>
       </c>
       <c r="D786" s="2"/>
     </row>
@@ -16684,10 +16723,10 @@
         <v>95</v>
       </c>
       <c r="B787" t="s" s="2">
+        <v>1669</v>
+      </c>
+      <c r="C787" t="s" s="2">
         <v>1670</v>
-      </c>
-      <c r="C787" t="s" s="2">
-        <v>1671</v>
       </c>
       <c r="D787" s="2"/>
     </row>
@@ -16696,10 +16735,10 @@
         <v>95</v>
       </c>
       <c r="B788" t="s" s="2">
+        <v>1671</v>
+      </c>
+      <c r="C788" t="s" s="2">
         <v>1672</v>
-      </c>
-      <c r="C788" t="s" s="2">
-        <v>1673</v>
       </c>
       <c r="D788" s="2"/>
     </row>
@@ -16708,10 +16747,10 @@
         <v>95</v>
       </c>
       <c r="B789" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="C789" t="s" s="2">
         <v>1674</v>
-      </c>
-      <c r="C789" t="s" s="2">
-        <v>1675</v>
       </c>
       <c r="D789" s="2"/>
     </row>
@@ -16720,10 +16759,10 @@
         <v>95</v>
       </c>
       <c r="B790" t="s" s="2">
+        <v>1675</v>
+      </c>
+      <c r="C790" t="s" s="2">
         <v>1676</v>
-      </c>
-      <c r="C790" t="s" s="2">
-        <v>1677</v>
       </c>
       <c r="D790" s="2"/>
     </row>
@@ -16732,10 +16771,10 @@
         <v>95</v>
       </c>
       <c r="B791" t="s" s="2">
+        <v>1677</v>
+      </c>
+      <c r="C791" t="s" s="2">
         <v>1678</v>
-      </c>
-      <c r="C791" t="s" s="2">
-        <v>1679</v>
       </c>
       <c r="D791" s="2"/>
     </row>
@@ -16744,10 +16783,10 @@
         <v>95</v>
       </c>
       <c r="B792" t="s" s="2">
+        <v>1679</v>
+      </c>
+      <c r="C792" t="s" s="2">
         <v>1680</v>
-      </c>
-      <c r="C792" t="s" s="2">
-        <v>1681</v>
       </c>
       <c r="D792" s="2"/>
     </row>
@@ -16756,10 +16795,10 @@
         <v>95</v>
       </c>
       <c r="B793" t="s" s="2">
+        <v>1681</v>
+      </c>
+      <c r="C793" t="s" s="2">
         <v>1682</v>
-      </c>
-      <c r="C793" t="s" s="2">
-        <v>1683</v>
       </c>
       <c r="D793" s="2"/>
     </row>
@@ -16768,10 +16807,10 @@
         <v>95</v>
       </c>
       <c r="B794" t="s" s="2">
+        <v>1683</v>
+      </c>
+      <c r="C794" t="s" s="2">
         <v>1684</v>
-      </c>
-      <c r="C794" t="s" s="2">
-        <v>1685</v>
       </c>
       <c r="D794" s="2"/>
     </row>
@@ -16780,10 +16819,10 @@
         <v>95</v>
       </c>
       <c r="B795" t="s" s="2">
+        <v>1685</v>
+      </c>
+      <c r="C795" t="s" s="2">
         <v>1686</v>
-      </c>
-      <c r="C795" t="s" s="2">
-        <v>1687</v>
       </c>
       <c r="D795" s="2"/>
     </row>
@@ -16792,10 +16831,10 @@
         <v>95</v>
       </c>
       <c r="B796" t="s" s="2">
+        <v>1687</v>
+      </c>
+      <c r="C796" t="s" s="2">
         <v>1688</v>
-      </c>
-      <c r="C796" t="s" s="2">
-        <v>1689</v>
       </c>
       <c r="D796" s="2"/>
     </row>
@@ -16804,10 +16843,10 @@
         <v>95</v>
       </c>
       <c r="B797" t="s" s="2">
+        <v>1689</v>
+      </c>
+      <c r="C797" t="s" s="2">
         <v>1690</v>
-      </c>
-      <c r="C797" t="s" s="2">
-        <v>1691</v>
       </c>
       <c r="D797" s="2"/>
     </row>
@@ -16816,10 +16855,10 @@
         <v>95</v>
       </c>
       <c r="B798" t="s" s="2">
+        <v>1691</v>
+      </c>
+      <c r="C798" t="s" s="2">
         <v>1692</v>
-      </c>
-      <c r="C798" t="s" s="2">
-        <v>1693</v>
       </c>
       <c r="D798" s="2"/>
     </row>
@@ -16828,10 +16867,10 @@
         <v>95</v>
       </c>
       <c r="B799" t="s" s="2">
+        <v>1693</v>
+      </c>
+      <c r="C799" t="s" s="2">
         <v>1694</v>
-      </c>
-      <c r="C799" t="s" s="2">
-        <v>1695</v>
       </c>
       <c r="D799" s="2"/>
     </row>
@@ -16840,10 +16879,10 @@
         <v>95</v>
       </c>
       <c r="B800" t="s" s="2">
+        <v>1695</v>
+      </c>
+      <c r="C800" t="s" s="2">
         <v>1696</v>
-      </c>
-      <c r="C800" t="s" s="2">
-        <v>1697</v>
       </c>
       <c r="D800" s="2"/>
     </row>
@@ -16852,10 +16891,10 @@
         <v>95</v>
       </c>
       <c r="B801" t="s" s="2">
+        <v>1697</v>
+      </c>
+      <c r="C801" t="s" s="2">
         <v>1698</v>
-      </c>
-      <c r="C801" t="s" s="2">
-        <v>1699</v>
       </c>
       <c r="D801" s="2"/>
     </row>
@@ -16864,10 +16903,10 @@
         <v>95</v>
       </c>
       <c r="B802" t="s" s="2">
+        <v>1699</v>
+      </c>
+      <c r="C802" t="s" s="2">
         <v>1700</v>
-      </c>
-      <c r="C802" t="s" s="2">
-        <v>1701</v>
       </c>
       <c r="D802" s="2"/>
     </row>
@@ -16876,10 +16915,10 @@
         <v>95</v>
       </c>
       <c r="B803" t="s" s="2">
+        <v>1701</v>
+      </c>
+      <c r="C803" t="s" s="2">
         <v>1702</v>
-      </c>
-      <c r="C803" t="s" s="2">
-        <v>1703</v>
       </c>
       <c r="D803" s="2"/>
     </row>
@@ -16888,10 +16927,10 @@
         <v>95</v>
       </c>
       <c r="B804" t="s" s="2">
+        <v>1703</v>
+      </c>
+      <c r="C804" t="s" s="2">
         <v>1704</v>
-      </c>
-      <c r="C804" t="s" s="2">
-        <v>1705</v>
       </c>
       <c r="D804" s="2"/>
     </row>
@@ -16900,10 +16939,10 @@
         <v>95</v>
       </c>
       <c r="B805" t="s" s="2">
+        <v>1705</v>
+      </c>
+      <c r="C805" t="s" s="2">
         <v>1706</v>
-      </c>
-      <c r="C805" t="s" s="2">
-        <v>1707</v>
       </c>
       <c r="D805" s="2"/>
     </row>
@@ -16912,10 +16951,10 @@
         <v>95</v>
       </c>
       <c r="B806" t="s" s="2">
+        <v>1707</v>
+      </c>
+      <c r="C806" t="s" s="2">
         <v>1708</v>
-      </c>
-      <c r="C806" t="s" s="2">
-        <v>1709</v>
       </c>
       <c r="D806" s="2"/>
     </row>
@@ -16924,10 +16963,10 @@
         <v>95</v>
       </c>
       <c r="B807" t="s" s="2">
+        <v>1709</v>
+      </c>
+      <c r="C807" t="s" s="2">
         <v>1710</v>
-      </c>
-      <c r="C807" t="s" s="2">
-        <v>1711</v>
       </c>
       <c r="D807" s="2"/>
     </row>
@@ -16936,10 +16975,10 @@
         <v>95</v>
       </c>
       <c r="B808" t="s" s="2">
+        <v>1711</v>
+      </c>
+      <c r="C808" t="s" s="2">
         <v>1712</v>
-      </c>
-      <c r="C808" t="s" s="2">
-        <v>1713</v>
       </c>
       <c r="D808" s="2"/>
     </row>
@@ -16948,10 +16987,10 @@
         <v>95</v>
       </c>
       <c r="B809" t="s" s="2">
+        <v>1713</v>
+      </c>
+      <c r="C809" t="s" s="2">
         <v>1714</v>
-      </c>
-      <c r="C809" t="s" s="2">
-        <v>1715</v>
       </c>
       <c r="D809" s="2"/>
     </row>
@@ -16960,10 +16999,10 @@
         <v>95</v>
       </c>
       <c r="B810" t="s" s="2">
+        <v>1715</v>
+      </c>
+      <c r="C810" t="s" s="2">
         <v>1716</v>
-      </c>
-      <c r="C810" t="s" s="2">
-        <v>1717</v>
       </c>
       <c r="D810" s="2"/>
     </row>
@@ -16972,10 +17011,10 @@
         <v>95</v>
       </c>
       <c r="B811" t="s" s="2">
+        <v>1717</v>
+      </c>
+      <c r="C811" t="s" s="2">
         <v>1718</v>
-      </c>
-      <c r="C811" t="s" s="2">
-        <v>1719</v>
       </c>
       <c r="D811" s="2"/>
     </row>
@@ -16984,10 +17023,10 @@
         <v>95</v>
       </c>
       <c r="B812" t="s" s="2">
+        <v>1719</v>
+      </c>
+      <c r="C812" t="s" s="2">
         <v>1720</v>
-      </c>
-      <c r="C812" t="s" s="2">
-        <v>1721</v>
       </c>
       <c r="D812" s="2"/>
     </row>
@@ -16996,10 +17035,10 @@
         <v>95</v>
       </c>
       <c r="B813" t="s" s="2">
+        <v>1721</v>
+      </c>
+      <c r="C813" t="s" s="2">
         <v>1722</v>
-      </c>
-      <c r="C813" t="s" s="2">
-        <v>1723</v>
       </c>
       <c r="D813" s="2"/>
     </row>
@@ -17008,10 +17047,10 @@
         <v>95</v>
       </c>
       <c r="B814" t="s" s="2">
+        <v>1723</v>
+      </c>
+      <c r="C814" t="s" s="2">
         <v>1724</v>
-      </c>
-      <c r="C814" t="s" s="2">
-        <v>1725</v>
       </c>
       <c r="D814" s="2"/>
     </row>
@@ -17020,10 +17059,10 @@
         <v>95</v>
       </c>
       <c r="B815" t="s" s="2">
+        <v>1725</v>
+      </c>
+      <c r="C815" t="s" s="2">
         <v>1726</v>
-      </c>
-      <c r="C815" t="s" s="2">
-        <v>1727</v>
       </c>
       <c r="D815" s="2"/>
     </row>
@@ -17032,10 +17071,10 @@
         <v>95</v>
       </c>
       <c r="B816" t="s" s="2">
+        <v>1727</v>
+      </c>
+      <c r="C816" t="s" s="2">
         <v>1728</v>
-      </c>
-      <c r="C816" t="s" s="2">
-        <v>1729</v>
       </c>
       <c r="D816" s="2"/>
     </row>
@@ -17044,10 +17083,10 @@
         <v>95</v>
       </c>
       <c r="B817" t="s" s="2">
+        <v>1729</v>
+      </c>
+      <c r="C817" t="s" s="2">
         <v>1730</v>
-      </c>
-      <c r="C817" t="s" s="2">
-        <v>1731</v>
       </c>
       <c r="D817" s="2"/>
     </row>
@@ -17056,10 +17095,10 @@
         <v>95</v>
       </c>
       <c r="B818" t="s" s="2">
+        <v>1731</v>
+      </c>
+      <c r="C818" t="s" s="2">
         <v>1732</v>
-      </c>
-      <c r="C818" t="s" s="2">
-        <v>1733</v>
       </c>
       <c r="D818" s="2"/>
     </row>
@@ -17068,10 +17107,10 @@
         <v>95</v>
       </c>
       <c r="B819" t="s" s="2">
+        <v>1733</v>
+      </c>
+      <c r="C819" t="s" s="2">
         <v>1734</v>
-      </c>
-      <c r="C819" t="s" s="2">
-        <v>1735</v>
       </c>
       <c r="D819" s="2"/>
     </row>
@@ -17080,10 +17119,10 @@
         <v>95</v>
       </c>
       <c r="B820" t="s" s="2">
+        <v>1735</v>
+      </c>
+      <c r="C820" t="s" s="2">
         <v>1736</v>
-      </c>
-      <c r="C820" t="s" s="2">
-        <v>1737</v>
       </c>
       <c r="D820" s="2"/>
     </row>
@@ -17092,10 +17131,10 @@
         <v>95</v>
       </c>
       <c r="B821" t="s" s="2">
+        <v>1737</v>
+      </c>
+      <c r="C821" t="s" s="2">
         <v>1738</v>
-      </c>
-      <c r="C821" t="s" s="2">
-        <v>1739</v>
       </c>
       <c r="D821" s="2"/>
     </row>
@@ -17104,10 +17143,10 @@
         <v>95</v>
       </c>
       <c r="B822" t="s" s="2">
+        <v>1739</v>
+      </c>
+      <c r="C822" t="s" s="2">
         <v>1740</v>
-      </c>
-      <c r="C822" t="s" s="2">
-        <v>1741</v>
       </c>
       <c r="D822" s="2"/>
     </row>
@@ -17116,10 +17155,10 @@
         <v>95</v>
       </c>
       <c r="B823" t="s" s="2">
+        <v>1741</v>
+      </c>
+      <c r="C823" t="s" s="2">
         <v>1742</v>
-      </c>
-      <c r="C823" t="s" s="2">
-        <v>1743</v>
       </c>
       <c r="D823" s="2"/>
     </row>
@@ -17128,10 +17167,10 @@
         <v>95</v>
       </c>
       <c r="B824" t="s" s="2">
+        <v>1743</v>
+      </c>
+      <c r="C824" t="s" s="2">
         <v>1744</v>
-      </c>
-      <c r="C824" t="s" s="2">
-        <v>1745</v>
       </c>
       <c r="D824" s="2"/>
     </row>
@@ -17140,10 +17179,10 @@
         <v>95</v>
       </c>
       <c r="B825" t="s" s="2">
+        <v>1745</v>
+      </c>
+      <c r="C825" t="s" s="2">
         <v>1746</v>
-      </c>
-      <c r="C825" t="s" s="2">
-        <v>1747</v>
       </c>
       <c r="D825" s="2"/>
     </row>
@@ -17152,10 +17191,10 @@
         <v>95</v>
       </c>
       <c r="B826" t="s" s="2">
+        <v>1747</v>
+      </c>
+      <c r="C826" t="s" s="2">
         <v>1748</v>
-      </c>
-      <c r="C826" t="s" s="2">
-        <v>1749</v>
       </c>
       <c r="D826" s="2"/>
     </row>
@@ -17164,10 +17203,10 @@
         <v>95</v>
       </c>
       <c r="B827" t="s" s="2">
+        <v>1749</v>
+      </c>
+      <c r="C827" t="s" s="2">
         <v>1750</v>
-      </c>
-      <c r="C827" t="s" s="2">
-        <v>1751</v>
       </c>
       <c r="D827" s="2"/>
     </row>
@@ -17176,10 +17215,10 @@
         <v>95</v>
       </c>
       <c r="B828" t="s" s="2">
+        <v>1751</v>
+      </c>
+      <c r="C828" t="s" s="2">
         <v>1752</v>
-      </c>
-      <c r="C828" t="s" s="2">
-        <v>1753</v>
       </c>
       <c r="D828" s="2"/>
     </row>
@@ -17188,10 +17227,10 @@
         <v>95</v>
       </c>
       <c r="B829" t="s" s="2">
+        <v>1753</v>
+      </c>
+      <c r="C829" t="s" s="2">
         <v>1754</v>
-      </c>
-      <c r="C829" t="s" s="2">
-        <v>1755</v>
       </c>
       <c r="D829" s="2"/>
     </row>
@@ -17200,10 +17239,10 @@
         <v>95</v>
       </c>
       <c r="B830" t="s" s="2">
+        <v>1755</v>
+      </c>
+      <c r="C830" t="s" s="2">
         <v>1756</v>
-      </c>
-      <c r="C830" t="s" s="2">
-        <v>1757</v>
       </c>
       <c r="D830" s="2"/>
     </row>
@@ -17212,10 +17251,10 @@
         <v>95</v>
       </c>
       <c r="B831" t="s" s="2">
+        <v>1757</v>
+      </c>
+      <c r="C831" t="s" s="2">
         <v>1758</v>
-      </c>
-      <c r="C831" t="s" s="2">
-        <v>1759</v>
       </c>
       <c r="D831" s="2"/>
     </row>
@@ -17224,10 +17263,10 @@
         <v>95</v>
       </c>
       <c r="B832" t="s" s="2">
+        <v>1759</v>
+      </c>
+      <c r="C832" t="s" s="2">
         <v>1760</v>
-      </c>
-      <c r="C832" t="s" s="2">
-        <v>1761</v>
       </c>
       <c r="D832" s="2"/>
     </row>
@@ -17236,10 +17275,10 @@
         <v>95</v>
       </c>
       <c r="B833" t="s" s="2">
+        <v>1761</v>
+      </c>
+      <c r="C833" t="s" s="2">
         <v>1762</v>
-      </c>
-      <c r="C833" t="s" s="2">
-        <v>1763</v>
       </c>
       <c r="D833" s="2"/>
     </row>
@@ -17248,10 +17287,10 @@
         <v>95</v>
       </c>
       <c r="B834" t="s" s="2">
+        <v>1763</v>
+      </c>
+      <c r="C834" t="s" s="2">
         <v>1764</v>
-      </c>
-      <c r="C834" t="s" s="2">
-        <v>1765</v>
       </c>
       <c r="D834" s="2"/>
     </row>
@@ -17260,10 +17299,10 @@
         <v>95</v>
       </c>
       <c r="B835" t="s" s="2">
+        <v>1765</v>
+      </c>
+      <c r="C835" t="s" s="2">
         <v>1766</v>
-      </c>
-      <c r="C835" t="s" s="2">
-        <v>1767</v>
       </c>
       <c r="D835" s="2"/>
     </row>
@@ -17272,10 +17311,10 @@
         <v>95</v>
       </c>
       <c r="B836" t="s" s="2">
+        <v>1767</v>
+      </c>
+      <c r="C836" t="s" s="2">
         <v>1768</v>
-      </c>
-      <c r="C836" t="s" s="2">
-        <v>1769</v>
       </c>
       <c r="D836" s="2"/>
     </row>
@@ -17284,10 +17323,10 @@
         <v>95</v>
       </c>
       <c r="B837" t="s" s="2">
+        <v>1769</v>
+      </c>
+      <c r="C837" t="s" s="2">
         <v>1770</v>
-      </c>
-      <c r="C837" t="s" s="2">
-        <v>1771</v>
       </c>
       <c r="D837" s="2"/>
     </row>
@@ -17296,10 +17335,10 @@
         <v>95</v>
       </c>
       <c r="B838" t="s" s="2">
+        <v>1771</v>
+      </c>
+      <c r="C838" t="s" s="2">
         <v>1772</v>
-      </c>
-      <c r="C838" t="s" s="2">
-        <v>1773</v>
       </c>
       <c r="D838" s="2"/>
     </row>
@@ -17308,10 +17347,10 @@
         <v>95</v>
       </c>
       <c r="B839" t="s" s="2">
+        <v>1773</v>
+      </c>
+      <c r="C839" t="s" s="2">
         <v>1774</v>
-      </c>
-      <c r="C839" t="s" s="2">
-        <v>1775</v>
       </c>
       <c r="D839" s="2"/>
     </row>
@@ -17320,10 +17359,10 @@
         <v>95</v>
       </c>
       <c r="B840" t="s" s="2">
+        <v>1775</v>
+      </c>
+      <c r="C840" t="s" s="2">
         <v>1776</v>
-      </c>
-      <c r="C840" t="s" s="2">
-        <v>1777</v>
       </c>
       <c r="D840" s="2"/>
     </row>
@@ -17332,10 +17371,10 @@
         <v>95</v>
       </c>
       <c r="B841" t="s" s="2">
+        <v>1777</v>
+      </c>
+      <c r="C841" t="s" s="2">
         <v>1778</v>
-      </c>
-      <c r="C841" t="s" s="2">
-        <v>1779</v>
       </c>
       <c r="D841" s="2"/>
     </row>
@@ -17344,10 +17383,10 @@
         <v>95</v>
       </c>
       <c r="B842" t="s" s="2">
+        <v>1779</v>
+      </c>
+      <c r="C842" t="s" s="2">
         <v>1780</v>
-      </c>
-      <c r="C842" t="s" s="2">
-        <v>1781</v>
       </c>
       <c r="D842" s="2"/>
     </row>
@@ -17356,10 +17395,10 @@
         <v>95</v>
       </c>
       <c r="B843" t="s" s="2">
+        <v>1781</v>
+      </c>
+      <c r="C843" t="s" s="2">
         <v>1782</v>
-      </c>
-      <c r="C843" t="s" s="2">
-        <v>1783</v>
       </c>
       <c r="D843" s="2"/>
     </row>
@@ -17368,10 +17407,10 @@
         <v>95</v>
       </c>
       <c r="B844" t="s" s="2">
+        <v>1783</v>
+      </c>
+      <c r="C844" t="s" s="2">
         <v>1784</v>
-      </c>
-      <c r="C844" t="s" s="2">
-        <v>1785</v>
       </c>
       <c r="D844" s="2"/>
     </row>
@@ -17380,10 +17419,10 @@
         <v>95</v>
       </c>
       <c r="B845" t="s" s="2">
+        <v>1785</v>
+      </c>
+      <c r="C845" t="s" s="2">
         <v>1786</v>
-      </c>
-      <c r="C845" t="s" s="2">
-        <v>1787</v>
       </c>
       <c r="D845" s="2"/>
     </row>
@@ -17392,10 +17431,10 @@
         <v>95</v>
       </c>
       <c r="B846" t="s" s="2">
+        <v>1787</v>
+      </c>
+      <c r="C846" t="s" s="2">
         <v>1788</v>
-      </c>
-      <c r="C846" t="s" s="2">
-        <v>1789</v>
       </c>
       <c r="D846" s="2"/>
     </row>
@@ -17404,10 +17443,10 @@
         <v>95</v>
       </c>
       <c r="B847" t="s" s="2">
+        <v>1789</v>
+      </c>
+      <c r="C847" t="s" s="2">
         <v>1790</v>
-      </c>
-      <c r="C847" t="s" s="2">
-        <v>1791</v>
       </c>
       <c r="D847" s="2"/>
     </row>
@@ -17416,10 +17455,10 @@
         <v>95</v>
       </c>
       <c r="B848" t="s" s="2">
+        <v>1791</v>
+      </c>
+      <c r="C848" t="s" s="2">
         <v>1792</v>
-      </c>
-      <c r="C848" t="s" s="2">
-        <v>1793</v>
       </c>
       <c r="D848" s="2"/>
     </row>
@@ -17428,10 +17467,10 @@
         <v>95</v>
       </c>
       <c r="B849" t="s" s="2">
+        <v>1793</v>
+      </c>
+      <c r="C849" t="s" s="2">
         <v>1794</v>
-      </c>
-      <c r="C849" t="s" s="2">
-        <v>1795</v>
       </c>
       <c r="D849" s="2"/>
     </row>
@@ -17440,10 +17479,10 @@
         <v>95</v>
       </c>
       <c r="B850" t="s" s="2">
+        <v>1795</v>
+      </c>
+      <c r="C850" t="s" s="2">
         <v>1796</v>
-      </c>
-      <c r="C850" t="s" s="2">
-        <v>1797</v>
       </c>
       <c r="D850" s="2"/>
     </row>
@@ -17452,10 +17491,10 @@
         <v>95</v>
       </c>
       <c r="B851" t="s" s="2">
+        <v>1797</v>
+      </c>
+      <c r="C851" t="s" s="2">
         <v>1798</v>
-      </c>
-      <c r="C851" t="s" s="2">
-        <v>1799</v>
       </c>
       <c r="D851" s="2"/>
     </row>
@@ -17464,10 +17503,10 @@
         <v>95</v>
       </c>
       <c r="B852" t="s" s="2">
+        <v>1799</v>
+      </c>
+      <c r="C852" t="s" s="2">
         <v>1800</v>
-      </c>
-      <c r="C852" t="s" s="2">
-        <v>1801</v>
       </c>
       <c r="D852" s="2"/>
     </row>
@@ -17476,10 +17515,10 @@
         <v>95</v>
       </c>
       <c r="B853" t="s" s="2">
+        <v>1801</v>
+      </c>
+      <c r="C853" t="s" s="2">
         <v>1802</v>
-      </c>
-      <c r="C853" t="s" s="2">
-        <v>1803</v>
       </c>
       <c r="D853" s="2"/>
     </row>
@@ -17488,10 +17527,10 @@
         <v>95</v>
       </c>
       <c r="B854" t="s" s="2">
+        <v>1803</v>
+      </c>
+      <c r="C854" t="s" s="2">
         <v>1804</v>
-      </c>
-      <c r="C854" t="s" s="2">
-        <v>1805</v>
       </c>
       <c r="D854" s="2"/>
     </row>
@@ -17500,10 +17539,10 @@
         <v>95</v>
       </c>
       <c r="B855" t="s" s="2">
+        <v>1805</v>
+      </c>
+      <c r="C855" t="s" s="2">
         <v>1806</v>
-      </c>
-      <c r="C855" t="s" s="2">
-        <v>1807</v>
       </c>
       <c r="D855" s="2"/>
     </row>
@@ -17512,10 +17551,10 @@
         <v>95</v>
       </c>
       <c r="B856" t="s" s="2">
+        <v>1807</v>
+      </c>
+      <c r="C856" t="s" s="2">
         <v>1808</v>
-      </c>
-      <c r="C856" t="s" s="2">
-        <v>1809</v>
       </c>
       <c r="D856" s="2"/>
     </row>
@@ -17524,10 +17563,10 @@
         <v>95</v>
       </c>
       <c r="B857" t="s" s="2">
+        <v>1809</v>
+      </c>
+      <c r="C857" t="s" s="2">
         <v>1810</v>
-      </c>
-      <c r="C857" t="s" s="2">
-        <v>1811</v>
       </c>
       <c r="D857" s="2"/>
     </row>
@@ -17536,10 +17575,10 @@
         <v>95</v>
       </c>
       <c r="B858" t="s" s="2">
+        <v>1811</v>
+      </c>
+      <c r="C858" t="s" s="2">
         <v>1812</v>
-      </c>
-      <c r="C858" t="s" s="2">
-        <v>1813</v>
       </c>
       <c r="D858" s="2"/>
     </row>
@@ -17548,10 +17587,10 @@
         <v>95</v>
       </c>
       <c r="B859" t="s" s="2">
+        <v>1813</v>
+      </c>
+      <c r="C859" t="s" s="2">
         <v>1814</v>
-      </c>
-      <c r="C859" t="s" s="2">
-        <v>1815</v>
       </c>
       <c r="D859" s="2"/>
     </row>
@@ -17560,10 +17599,10 @@
         <v>95</v>
       </c>
       <c r="B860" t="s" s="2">
+        <v>1815</v>
+      </c>
+      <c r="C860" t="s" s="2">
         <v>1816</v>
-      </c>
-      <c r="C860" t="s" s="2">
-        <v>1817</v>
       </c>
       <c r="D860" s="2"/>
     </row>
@@ -17572,10 +17611,10 @@
         <v>95</v>
       </c>
       <c r="B861" t="s" s="2">
+        <v>1817</v>
+      </c>
+      <c r="C861" t="s" s="2">
         <v>1818</v>
-      </c>
-      <c r="C861" t="s" s="2">
-        <v>1819</v>
       </c>
       <c r="D861" s="2"/>
     </row>
@@ -17584,10 +17623,10 @@
         <v>95</v>
       </c>
       <c r="B862" t="s" s="2">
+        <v>1819</v>
+      </c>
+      <c r="C862" t="s" s="2">
         <v>1820</v>
-      </c>
-      <c r="C862" t="s" s="2">
-        <v>1821</v>
       </c>
       <c r="D862" s="2"/>
     </row>
@@ -17596,10 +17635,10 @@
         <v>95</v>
       </c>
       <c r="B863" t="s" s="2">
+        <v>1821</v>
+      </c>
+      <c r="C863" t="s" s="2">
         <v>1822</v>
-      </c>
-      <c r="C863" t="s" s="2">
-        <v>1823</v>
       </c>
       <c r="D863" s="2"/>
     </row>
@@ -17608,10 +17647,10 @@
         <v>95</v>
       </c>
       <c r="B864" t="s" s="2">
+        <v>1823</v>
+      </c>
+      <c r="C864" t="s" s="2">
         <v>1824</v>
-      </c>
-      <c r="C864" t="s" s="2">
-        <v>1825</v>
       </c>
       <c r="D864" s="2"/>
     </row>
@@ -17620,10 +17659,10 @@
         <v>95</v>
       </c>
       <c r="B865" t="s" s="2">
+        <v>1825</v>
+      </c>
+      <c r="C865" t="s" s="2">
         <v>1826</v>
-      </c>
-      <c r="C865" t="s" s="2">
-        <v>1827</v>
       </c>
       <c r="D865" s="2"/>
     </row>
@@ -17632,10 +17671,10 @@
         <v>95</v>
       </c>
       <c r="B866" t="s" s="2">
+        <v>1827</v>
+      </c>
+      <c r="C866" t="s" s="2">
         <v>1828</v>
-      </c>
-      <c r="C866" t="s" s="2">
-        <v>1829</v>
       </c>
       <c r="D866" s="2"/>
     </row>
@@ -17644,10 +17683,10 @@
         <v>95</v>
       </c>
       <c r="B867" t="s" s="2">
+        <v>1829</v>
+      </c>
+      <c r="C867" t="s" s="2">
         <v>1830</v>
-      </c>
-      <c r="C867" t="s" s="2">
-        <v>1831</v>
       </c>
       <c r="D867" s="2"/>
     </row>
@@ -17656,10 +17695,10 @@
         <v>95</v>
       </c>
       <c r="B868" t="s" s="2">
+        <v>1831</v>
+      </c>
+      <c r="C868" t="s" s="2">
         <v>1832</v>
-      </c>
-      <c r="C868" t="s" s="2">
-        <v>1833</v>
       </c>
       <c r="D868" s="2"/>
     </row>
@@ -17668,10 +17707,10 @@
         <v>95</v>
       </c>
       <c r="B869" t="s" s="2">
+        <v>1833</v>
+      </c>
+      <c r="C869" t="s" s="2">
         <v>1834</v>
-      </c>
-      <c r="C869" t="s" s="2">
-        <v>1835</v>
       </c>
       <c r="D869" s="2"/>
     </row>
@@ -17680,10 +17719,10 @@
         <v>95</v>
       </c>
       <c r="B870" t="s" s="2">
+        <v>1835</v>
+      </c>
+      <c r="C870" t="s" s="2">
         <v>1836</v>
-      </c>
-      <c r="C870" t="s" s="2">
-        <v>1837</v>
       </c>
       <c r="D870" s="2"/>
     </row>
@@ -17692,10 +17731,10 @@
         <v>95</v>
       </c>
       <c r="B871" t="s" s="2">
+        <v>1837</v>
+      </c>
+      <c r="C871" t="s" s="2">
         <v>1838</v>
-      </c>
-      <c r="C871" t="s" s="2">
-        <v>1839</v>
       </c>
       <c r="D871" s="2"/>
     </row>
@@ -17704,10 +17743,10 @@
         <v>95</v>
       </c>
       <c r="B872" t="s" s="2">
+        <v>1839</v>
+      </c>
+      <c r="C872" t="s" s="2">
         <v>1840</v>
-      </c>
-      <c r="C872" t="s" s="2">
-        <v>1841</v>
       </c>
       <c r="D872" s="2"/>
     </row>
@@ -17716,10 +17755,10 @@
         <v>95</v>
       </c>
       <c r="B873" t="s" s="2">
+        <v>1841</v>
+      </c>
+      <c r="C873" t="s" s="2">
         <v>1842</v>
-      </c>
-      <c r="C873" t="s" s="2">
-        <v>1843</v>
       </c>
       <c r="D873" s="2"/>
     </row>
@@ -17728,10 +17767,10 @@
         <v>95</v>
       </c>
       <c r="B874" t="s" s="2">
+        <v>1843</v>
+      </c>
+      <c r="C874" t="s" s="2">
         <v>1844</v>
-      </c>
-      <c r="C874" t="s" s="2">
-        <v>1845</v>
       </c>
       <c r="D874" s="2"/>
     </row>
@@ -17740,10 +17779,10 @@
         <v>95</v>
       </c>
       <c r="B875" t="s" s="2">
+        <v>1845</v>
+      </c>
+      <c r="C875" t="s" s="2">
         <v>1846</v>
-      </c>
-      <c r="C875" t="s" s="2">
-        <v>1847</v>
       </c>
       <c r="D875" s="2"/>
     </row>
@@ -17752,10 +17791,10 @@
         <v>95</v>
       </c>
       <c r="B876" t="s" s="2">
+        <v>1847</v>
+      </c>
+      <c r="C876" t="s" s="2">
         <v>1848</v>
-      </c>
-      <c r="C876" t="s" s="2">
-        <v>1849</v>
       </c>
       <c r="D876" s="2"/>
     </row>
@@ -17764,10 +17803,10 @@
         <v>95</v>
       </c>
       <c r="B877" t="s" s="2">
+        <v>1849</v>
+      </c>
+      <c r="C877" t="s" s="2">
         <v>1850</v>
-      </c>
-      <c r="C877" t="s" s="2">
-        <v>1851</v>
       </c>
       <c r="D877" s="2"/>
     </row>
@@ -17776,10 +17815,10 @@
         <v>95</v>
       </c>
       <c r="B878" t="s" s="2">
+        <v>1851</v>
+      </c>
+      <c r="C878" t="s" s="2">
         <v>1852</v>
-      </c>
-      <c r="C878" t="s" s="2">
-        <v>1853</v>
       </c>
       <c r="D878" s="2"/>
     </row>
@@ -17788,10 +17827,10 @@
         <v>95</v>
       </c>
       <c r="B879" t="s" s="2">
+        <v>1853</v>
+      </c>
+      <c r="C879" t="s" s="2">
         <v>1854</v>
-      </c>
-      <c r="C879" t="s" s="2">
-        <v>1855</v>
       </c>
       <c r="D879" s="2"/>
     </row>
@@ -17800,10 +17839,10 @@
         <v>95</v>
       </c>
       <c r="B880" t="s" s="2">
+        <v>1855</v>
+      </c>
+      <c r="C880" t="s" s="2">
         <v>1856</v>
-      </c>
-      <c r="C880" t="s" s="2">
-        <v>1857</v>
       </c>
       <c r="D880" s="2"/>
     </row>
@@ -17812,10 +17851,10 @@
         <v>95</v>
       </c>
       <c r="B881" t="s" s="2">
+        <v>1857</v>
+      </c>
+      <c r="C881" t="s" s="2">
         <v>1858</v>
-      </c>
-      <c r="C881" t="s" s="2">
-        <v>1859</v>
       </c>
       <c r="D881" s="2"/>
     </row>
@@ -17824,10 +17863,10 @@
         <v>95</v>
       </c>
       <c r="B882" t="s" s="2">
+        <v>1859</v>
+      </c>
+      <c r="C882" t="s" s="2">
         <v>1860</v>
-      </c>
-      <c r="C882" t="s" s="2">
-        <v>1861</v>
       </c>
       <c r="D882" s="2"/>
     </row>
@@ -17836,10 +17875,10 @@
         <v>95</v>
       </c>
       <c r="B883" t="s" s="2">
+        <v>1861</v>
+      </c>
+      <c r="C883" t="s" s="2">
         <v>1862</v>
-      </c>
-      <c r="C883" t="s" s="2">
-        <v>1863</v>
       </c>
       <c r="D883" s="2"/>
     </row>
@@ -17848,10 +17887,10 @@
         <v>95</v>
       </c>
       <c r="B884" t="s" s="2">
+        <v>1863</v>
+      </c>
+      <c r="C884" t="s" s="2">
         <v>1864</v>
-      </c>
-      <c r="C884" t="s" s="2">
-        <v>1865</v>
       </c>
       <c r="D884" s="2"/>
     </row>
@@ -17860,10 +17899,10 @@
         <v>95</v>
       </c>
       <c r="B885" t="s" s="2">
+        <v>1865</v>
+      </c>
+      <c r="C885" t="s" s="2">
         <v>1866</v>
-      </c>
-      <c r="C885" t="s" s="2">
-        <v>1867</v>
       </c>
       <c r="D885" s="2"/>
     </row>
@@ -17872,10 +17911,10 @@
         <v>95</v>
       </c>
       <c r="B886" t="s" s="2">
+        <v>1867</v>
+      </c>
+      <c r="C886" t="s" s="2">
         <v>1868</v>
-      </c>
-      <c r="C886" t="s" s="2">
-        <v>1869</v>
       </c>
       <c r="D886" s="2"/>
     </row>
@@ -17884,10 +17923,10 @@
         <v>95</v>
       </c>
       <c r="B887" t="s" s="2">
+        <v>1869</v>
+      </c>
+      <c r="C887" t="s" s="2">
         <v>1870</v>
-      </c>
-      <c r="C887" t="s" s="2">
-        <v>1871</v>
       </c>
       <c r="D887" s="2"/>
     </row>
@@ -17896,10 +17935,10 @@
         <v>95</v>
       </c>
       <c r="B888" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="C888" t="s" s="2">
         <v>1872</v>
-      </c>
-      <c r="C888" t="s" s="2">
-        <v>1873</v>
       </c>
       <c r="D888" s="2"/>
     </row>
@@ -17908,10 +17947,10 @@
         <v>95</v>
       </c>
       <c r="B889" t="s" s="2">
+        <v>1873</v>
+      </c>
+      <c r="C889" t="s" s="2">
         <v>1874</v>
-      </c>
-      <c r="C889" t="s" s="2">
-        <v>1875</v>
       </c>
       <c r="D889" s="2"/>
     </row>
@@ -17920,10 +17959,10 @@
         <v>95</v>
       </c>
       <c r="B890" t="s" s="2">
+        <v>1875</v>
+      </c>
+      <c r="C890" t="s" s="2">
         <v>1876</v>
-      </c>
-      <c r="C890" t="s" s="2">
-        <v>1877</v>
       </c>
       <c r="D890" s="2"/>
     </row>
@@ -17932,10 +17971,10 @@
         <v>95</v>
       </c>
       <c r="B891" t="s" s="2">
+        <v>1877</v>
+      </c>
+      <c r="C891" t="s" s="2">
         <v>1878</v>
-      </c>
-      <c r="C891" t="s" s="2">
-        <v>1879</v>
       </c>
       <c r="D891" s="2"/>
     </row>
@@ -17944,10 +17983,10 @@
         <v>95</v>
       </c>
       <c r="B892" t="s" s="2">
+        <v>1879</v>
+      </c>
+      <c r="C892" t="s" s="2">
         <v>1880</v>
-      </c>
-      <c r="C892" t="s" s="2">
-        <v>1881</v>
       </c>
       <c r="D892" s="2"/>
     </row>
@@ -17956,10 +17995,10 @@
         <v>95</v>
       </c>
       <c r="B893" t="s" s="2">
+        <v>1881</v>
+      </c>
+      <c r="C893" t="s" s="2">
         <v>1882</v>
-      </c>
-      <c r="C893" t="s" s="2">
-        <v>1883</v>
       </c>
       <c r="D893" s="2"/>
     </row>
@@ -17968,10 +18007,10 @@
         <v>95</v>
       </c>
       <c r="B894" t="s" s="2">
+        <v>1883</v>
+      </c>
+      <c r="C894" t="s" s="2">
         <v>1884</v>
-      </c>
-      <c r="C894" t="s" s="2">
-        <v>1885</v>
       </c>
       <c r="D894" s="2"/>
     </row>
@@ -17980,10 +18019,10 @@
         <v>95</v>
       </c>
       <c r="B895" t="s" s="2">
+        <v>1885</v>
+      </c>
+      <c r="C895" t="s" s="2">
         <v>1886</v>
-      </c>
-      <c r="C895" t="s" s="2">
-        <v>1887</v>
       </c>
       <c r="D895" s="2"/>
     </row>
@@ -17992,10 +18031,10 @@
         <v>95</v>
       </c>
       <c r="B896" t="s" s="2">
+        <v>1887</v>
+      </c>
+      <c r="C896" t="s" s="2">
         <v>1888</v>
-      </c>
-      <c r="C896" t="s" s="2">
-        <v>1889</v>
       </c>
       <c r="D896" s="2"/>
     </row>
@@ -18004,10 +18043,10 @@
         <v>95</v>
       </c>
       <c r="B897" t="s" s="2">
+        <v>1889</v>
+      </c>
+      <c r="C897" t="s" s="2">
         <v>1890</v>
-      </c>
-      <c r="C897" t="s" s="2">
-        <v>1891</v>
       </c>
       <c r="D897" s="2"/>
     </row>
@@ -18016,10 +18055,10 @@
         <v>95</v>
       </c>
       <c r="B898" t="s" s="2">
+        <v>1891</v>
+      </c>
+      <c r="C898" t="s" s="2">
         <v>1892</v>
-      </c>
-      <c r="C898" t="s" s="2">
-        <v>1893</v>
       </c>
       <c r="D898" s="2"/>
     </row>
@@ -18028,10 +18067,10 @@
         <v>95</v>
       </c>
       <c r="B899" t="s" s="2">
+        <v>1893</v>
+      </c>
+      <c r="C899" t="s" s="2">
         <v>1894</v>
-      </c>
-      <c r="C899" t="s" s="2">
-        <v>1895</v>
       </c>
       <c r="D899" s="2"/>
     </row>
@@ -18040,10 +18079,10 @@
         <v>95</v>
       </c>
       <c r="B900" t="s" s="2">
+        <v>1895</v>
+      </c>
+      <c r="C900" t="s" s="2">
         <v>1896</v>
-      </c>
-      <c r="C900" t="s" s="2">
-        <v>1897</v>
       </c>
       <c r="D900" s="2"/>
     </row>
@@ -18052,10 +18091,10 @@
         <v>95</v>
       </c>
       <c r="B901" t="s" s="2">
+        <v>1897</v>
+      </c>
+      <c r="C901" t="s" s="2">
         <v>1898</v>
-      </c>
-      <c r="C901" t="s" s="2">
-        <v>1899</v>
       </c>
       <c r="D901" s="2"/>
     </row>
@@ -18064,10 +18103,10 @@
         <v>95</v>
       </c>
       <c r="B902" t="s" s="2">
+        <v>1899</v>
+      </c>
+      <c r="C902" t="s" s="2">
         <v>1900</v>
-      </c>
-      <c r="C902" t="s" s="2">
-        <v>1901</v>
       </c>
       <c r="D902" s="2"/>
     </row>
@@ -18076,10 +18115,10 @@
         <v>95</v>
       </c>
       <c r="B903" t="s" s="2">
+        <v>1901</v>
+      </c>
+      <c r="C903" t="s" s="2">
         <v>1902</v>
-      </c>
-      <c r="C903" t="s" s="2">
-        <v>1903</v>
       </c>
       <c r="D903" s="2"/>
     </row>
@@ -18088,10 +18127,10 @@
         <v>95</v>
       </c>
       <c r="B904" t="s" s="2">
+        <v>1903</v>
+      </c>
+      <c r="C904" t="s" s="2">
         <v>1904</v>
-      </c>
-      <c r="C904" t="s" s="2">
-        <v>1905</v>
       </c>
       <c r="D904" s="2"/>
     </row>
@@ -18100,10 +18139,10 @@
         <v>95</v>
       </c>
       <c r="B905" t="s" s="2">
+        <v>1905</v>
+      </c>
+      <c r="C905" t="s" s="2">
         <v>1906</v>
-      </c>
-      <c r="C905" t="s" s="2">
-        <v>1907</v>
       </c>
       <c r="D905" s="2"/>
     </row>
@@ -18112,10 +18151,10 @@
         <v>95</v>
       </c>
       <c r="B906" t="s" s="2">
+        <v>1907</v>
+      </c>
+      <c r="C906" t="s" s="2">
         <v>1908</v>
-      </c>
-      <c r="C906" t="s" s="2">
-        <v>1909</v>
       </c>
       <c r="D906" s="2"/>
     </row>
@@ -18124,10 +18163,10 @@
         <v>95</v>
       </c>
       <c r="B907" t="s" s="2">
+        <v>1909</v>
+      </c>
+      <c r="C907" t="s" s="2">
         <v>1910</v>
-      </c>
-      <c r="C907" t="s" s="2">
-        <v>1911</v>
       </c>
       <c r="D907" s="2"/>
     </row>
@@ -18136,10 +18175,10 @@
         <v>95</v>
       </c>
       <c r="B908" t="s" s="2">
+        <v>1911</v>
+      </c>
+      <c r="C908" t="s" s="2">
         <v>1912</v>
-      </c>
-      <c r="C908" t="s" s="2">
-        <v>1913</v>
       </c>
       <c r="D908" s="2"/>
     </row>
@@ -18148,10 +18187,10 @@
         <v>95</v>
       </c>
       <c r="B909" t="s" s="2">
+        <v>1913</v>
+      </c>
+      <c r="C909" t="s" s="2">
         <v>1914</v>
-      </c>
-      <c r="C909" t="s" s="2">
-        <v>1915</v>
       </c>
       <c r="D909" s="2"/>
     </row>
@@ -18160,10 +18199,10 @@
         <v>95</v>
       </c>
       <c r="B910" t="s" s="2">
+        <v>1915</v>
+      </c>
+      <c r="C910" t="s" s="2">
         <v>1916</v>
-      </c>
-      <c r="C910" t="s" s="2">
-        <v>1917</v>
       </c>
       <c r="D910" s="2"/>
     </row>
@@ -18172,10 +18211,10 @@
         <v>95</v>
       </c>
       <c r="B911" t="s" s="2">
+        <v>1917</v>
+      </c>
+      <c r="C911" t="s" s="2">
         <v>1918</v>
-      </c>
-      <c r="C911" t="s" s="2">
-        <v>1919</v>
       </c>
       <c r="D911" s="2"/>
     </row>
@@ -18184,10 +18223,10 @@
         <v>95</v>
       </c>
       <c r="B912" t="s" s="2">
+        <v>1919</v>
+      </c>
+      <c r="C912" t="s" s="2">
         <v>1920</v>
-      </c>
-      <c r="C912" t="s" s="2">
-        <v>1921</v>
       </c>
       <c r="D912" s="2"/>
     </row>
@@ -18196,10 +18235,10 @@
         <v>95</v>
       </c>
       <c r="B913" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="C913" t="s" s="2">
         <v>1922</v>
-      </c>
-      <c r="C913" t="s" s="2">
-        <v>1923</v>
       </c>
       <c r="D913" s="2"/>
     </row>
@@ -18208,10 +18247,10 @@
         <v>95</v>
       </c>
       <c r="B914" t="s" s="2">
+        <v>1923</v>
+      </c>
+      <c r="C914" t="s" s="2">
         <v>1924</v>
-      </c>
-      <c r="C914" t="s" s="2">
-        <v>1925</v>
       </c>
       <c r="D914" s="2"/>
     </row>
@@ -18220,10 +18259,10 @@
         <v>95</v>
       </c>
       <c r="B915" t="s" s="2">
+        <v>1925</v>
+      </c>
+      <c r="C915" t="s" s="2">
         <v>1926</v>
-      </c>
-      <c r="C915" t="s" s="2">
-        <v>1927</v>
       </c>
       <c r="D915" s="2"/>
     </row>
@@ -18232,10 +18271,10 @@
         <v>95</v>
       </c>
       <c r="B916" t="s" s="2">
+        <v>1927</v>
+      </c>
+      <c r="C916" t="s" s="2">
         <v>1928</v>
-      </c>
-      <c r="C916" t="s" s="2">
-        <v>1929</v>
       </c>
       <c r="D916" s="2"/>
     </row>
@@ -18244,10 +18283,10 @@
         <v>95</v>
       </c>
       <c r="B917" t="s" s="2">
+        <v>1929</v>
+      </c>
+      <c r="C917" t="s" s="2">
         <v>1930</v>
-      </c>
-      <c r="C917" t="s" s="2">
-        <v>1931</v>
       </c>
       <c r="D917" s="2"/>
     </row>
@@ -18256,10 +18295,10 @@
         <v>95</v>
       </c>
       <c r="B918" t="s" s="2">
+        <v>1931</v>
+      </c>
+      <c r="C918" t="s" s="2">
         <v>1932</v>
-      </c>
-      <c r="C918" t="s" s="2">
-        <v>1933</v>
       </c>
       <c r="D918" s="2"/>
     </row>
@@ -18268,10 +18307,10 @@
         <v>95</v>
       </c>
       <c r="B919" t="s" s="2">
+        <v>1933</v>
+      </c>
+      <c r="C919" t="s" s="2">
         <v>1934</v>
-      </c>
-      <c r="C919" t="s" s="2">
-        <v>1935</v>
       </c>
       <c r="D919" s="2"/>
     </row>
@@ -18280,10 +18319,10 @@
         <v>95</v>
       </c>
       <c r="B920" t="s" s="2">
+        <v>1935</v>
+      </c>
+      <c r="C920" t="s" s="2">
         <v>1936</v>
-      </c>
-      <c r="C920" t="s" s="2">
-        <v>1937</v>
       </c>
       <c r="D920" s="2"/>
     </row>
@@ -18292,10 +18331,10 @@
         <v>95</v>
       </c>
       <c r="B921" t="s" s="2">
+        <v>1937</v>
+      </c>
+      <c r="C921" t="s" s="2">
         <v>1938</v>
-      </c>
-      <c r="C921" t="s" s="2">
-        <v>1939</v>
       </c>
       <c r="D921" s="2"/>
     </row>
@@ -18304,10 +18343,10 @@
         <v>95</v>
       </c>
       <c r="B922" t="s" s="2">
+        <v>1939</v>
+      </c>
+      <c r="C922" t="s" s="2">
         <v>1940</v>
-      </c>
-      <c r="C922" t="s" s="2">
-        <v>1941</v>
       </c>
       <c r="D922" s="2"/>
     </row>
@@ -18316,10 +18355,10 @@
         <v>95</v>
       </c>
       <c r="B923" t="s" s="2">
+        <v>1941</v>
+      </c>
+      <c r="C923" t="s" s="2">
         <v>1942</v>
-      </c>
-      <c r="C923" t="s" s="2">
-        <v>1943</v>
       </c>
       <c r="D923" s="2"/>
     </row>
@@ -18328,10 +18367,10 @@
         <v>95</v>
       </c>
       <c r="B924" t="s" s="2">
+        <v>1943</v>
+      </c>
+      <c r="C924" t="s" s="2">
         <v>1944</v>
-      </c>
-      <c r="C924" t="s" s="2">
-        <v>1945</v>
       </c>
       <c r="D924" s="2"/>
     </row>
@@ -18340,10 +18379,10 @@
         <v>95</v>
       </c>
       <c r="B925" t="s" s="2">
+        <v>1945</v>
+      </c>
+      <c r="C925" t="s" s="2">
         <v>1946</v>
-      </c>
-      <c r="C925" t="s" s="2">
-        <v>1947</v>
       </c>
       <c r="D925" s="2"/>
     </row>
@@ -18352,10 +18391,10 @@
         <v>95</v>
       </c>
       <c r="B926" t="s" s="2">
+        <v>1947</v>
+      </c>
+      <c r="C926" t="s" s="2">
         <v>1948</v>
-      </c>
-      <c r="C926" t="s" s="2">
-        <v>1949</v>
       </c>
       <c r="D926" s="2"/>
     </row>
@@ -18364,10 +18403,10 @@
         <v>95</v>
       </c>
       <c r="B927" t="s" s="2">
+        <v>1949</v>
+      </c>
+      <c r="C927" t="s" s="2">
         <v>1950</v>
-      </c>
-      <c r="C927" t="s" s="2">
-        <v>1951</v>
       </c>
       <c r="D927" s="2"/>
     </row>
@@ -18376,10 +18415,10 @@
         <v>95</v>
       </c>
       <c r="B928" t="s" s="2">
+        <v>1951</v>
+      </c>
+      <c r="C928" t="s" s="2">
         <v>1952</v>
-      </c>
-      <c r="C928" t="s" s="2">
-        <v>1953</v>
       </c>
       <c r="D928" s="2"/>
     </row>
@@ -18388,10 +18427,10 @@
         <v>95</v>
       </c>
       <c r="B929" t="s" s="2">
+        <v>1953</v>
+      </c>
+      <c r="C929" t="s" s="2">
         <v>1954</v>
-      </c>
-      <c r="C929" t="s" s="2">
-        <v>1955</v>
       </c>
       <c r="D929" s="2"/>
     </row>
@@ -18400,10 +18439,10 @@
         <v>95</v>
       </c>
       <c r="B930" t="s" s="2">
+        <v>1955</v>
+      </c>
+      <c r="C930" t="s" s="2">
         <v>1956</v>
-      </c>
-      <c r="C930" t="s" s="2">
-        <v>1957</v>
       </c>
       <c r="D930" s="2"/>
     </row>
@@ -18412,10 +18451,10 @@
         <v>95</v>
       </c>
       <c r="B931" t="s" s="2">
+        <v>1957</v>
+      </c>
+      <c r="C931" t="s" s="2">
         <v>1958</v>
-      </c>
-      <c r="C931" t="s" s="2">
-        <v>1959</v>
       </c>
       <c r="D931" s="2"/>
     </row>
@@ -18424,10 +18463,10 @@
         <v>95</v>
       </c>
       <c r="B932" t="s" s="2">
+        <v>1959</v>
+      </c>
+      <c r="C932" t="s" s="2">
         <v>1960</v>
-      </c>
-      <c r="C932" t="s" s="2">
-        <v>1961</v>
       </c>
       <c r="D932" s="2"/>
     </row>
@@ -18436,10 +18475,10 @@
         <v>95</v>
       </c>
       <c r="B933" t="s" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C933" t="s" s="2">
         <v>1962</v>
-      </c>
-      <c r="C933" t="s" s="2">
-        <v>1963</v>
       </c>
       <c r="D933" s="2"/>
     </row>
@@ -18448,10 +18487,10 @@
         <v>95</v>
       </c>
       <c r="B934" t="s" s="2">
+        <v>1963</v>
+      </c>
+      <c r="C934" t="s" s="2">
         <v>1964</v>
-      </c>
-      <c r="C934" t="s" s="2">
-        <v>1965</v>
       </c>
       <c r="D934" s="2"/>
     </row>
@@ -18460,10 +18499,10 @@
         <v>95</v>
       </c>
       <c r="B935" t="s" s="2">
+        <v>1965</v>
+      </c>
+      <c r="C935" t="s" s="2">
         <v>1966</v>
-      </c>
-      <c r="C935" t="s" s="2">
-        <v>1967</v>
       </c>
       <c r="D935" s="2"/>
     </row>
@@ -18472,10 +18511,10 @@
         <v>95</v>
       </c>
       <c r="B936" t="s" s="2">
+        <v>1967</v>
+      </c>
+      <c r="C936" t="s" s="2">
         <v>1968</v>
-      </c>
-      <c r="C936" t="s" s="2">
-        <v>1969</v>
       </c>
       <c r="D936" s="2"/>
     </row>
@@ -18484,10 +18523,10 @@
         <v>95</v>
       </c>
       <c r="B937" t="s" s="2">
+        <v>1969</v>
+      </c>
+      <c r="C937" t="s" s="2">
         <v>1970</v>
-      </c>
-      <c r="C937" t="s" s="2">
-        <v>1971</v>
       </c>
       <c r="D937" s="2"/>
     </row>
@@ -18496,10 +18535,10 @@
         <v>95</v>
       </c>
       <c r="B938" t="s" s="2">
+        <v>1971</v>
+      </c>
+      <c r="C938" t="s" s="2">
         <v>1972</v>
-      </c>
-      <c r="C938" t="s" s="2">
-        <v>1973</v>
       </c>
       <c r="D938" s="2"/>
     </row>
@@ -18508,10 +18547,10 @@
         <v>95</v>
       </c>
       <c r="B939" t="s" s="2">
+        <v>1973</v>
+      </c>
+      <c r="C939" t="s" s="2">
         <v>1974</v>
-      </c>
-      <c r="C939" t="s" s="2">
-        <v>1975</v>
       </c>
       <c r="D939" s="2"/>
     </row>
@@ -18520,10 +18559,10 @@
         <v>95</v>
       </c>
       <c r="B940" t="s" s="2">
+        <v>1975</v>
+      </c>
+      <c r="C940" t="s" s="2">
         <v>1976</v>
-      </c>
-      <c r="C940" t="s" s="2">
-        <v>1977</v>
       </c>
       <c r="D940" s="2"/>
     </row>
@@ -18532,10 +18571,10 @@
         <v>95</v>
       </c>
       <c r="B941" t="s" s="2">
+        <v>1977</v>
+      </c>
+      <c r="C941" t="s" s="2">
         <v>1978</v>
-      </c>
-      <c r="C941" t="s" s="2">
-        <v>1979</v>
       </c>
       <c r="D941" s="2"/>
     </row>
@@ -18544,10 +18583,10 @@
         <v>95</v>
       </c>
       <c r="B942" t="s" s="2">
+        <v>1979</v>
+      </c>
+      <c r="C942" t="s" s="2">
         <v>1980</v>
-      </c>
-      <c r="C942" t="s" s="2">
-        <v>1981</v>
       </c>
       <c r="D942" s="2"/>
     </row>
@@ -18556,10 +18595,10 @@
         <v>95</v>
       </c>
       <c r="B943" t="s" s="2">
+        <v>1981</v>
+      </c>
+      <c r="C943" t="s" s="2">
         <v>1982</v>
-      </c>
-      <c r="C943" t="s" s="2">
-        <v>1983</v>
       </c>
       <c r="D943" s="2"/>
     </row>
@@ -18568,10 +18607,10 @@
         <v>95</v>
       </c>
       <c r="B944" t="s" s="2">
+        <v>1983</v>
+      </c>
+      <c r="C944" t="s" s="2">
         <v>1984</v>
-      </c>
-      <c r="C944" t="s" s="2">
-        <v>1985</v>
       </c>
       <c r="D944" s="2"/>
     </row>
@@ -18580,10 +18619,10 @@
         <v>95</v>
       </c>
       <c r="B945" t="s" s="2">
+        <v>1985</v>
+      </c>
+      <c r="C945" t="s" s="2">
         <v>1986</v>
-      </c>
-      <c r="C945" t="s" s="2">
-        <v>1987</v>
       </c>
       <c r="D945" s="2"/>
     </row>
@@ -18592,10 +18631,10 @@
         <v>95</v>
       </c>
       <c r="B946" t="s" s="2">
+        <v>1987</v>
+      </c>
+      <c r="C946" t="s" s="2">
         <v>1988</v>
-      </c>
-      <c r="C946" t="s" s="2">
-        <v>1989</v>
       </c>
       <c r="D946" s="2"/>
     </row>
@@ -18604,10 +18643,10 @@
         <v>95</v>
       </c>
       <c r="B947" t="s" s="2">
+        <v>1989</v>
+      </c>
+      <c r="C947" t="s" s="2">
         <v>1990</v>
-      </c>
-      <c r="C947" t="s" s="2">
-        <v>1991</v>
       </c>
       <c r="D947" s="2"/>
     </row>
@@ -18616,10 +18655,10 @@
         <v>95</v>
       </c>
       <c r="B948" t="s" s="2">
+        <v>1991</v>
+      </c>
+      <c r="C948" t="s" s="2">
         <v>1992</v>
-      </c>
-      <c r="C948" t="s" s="2">
-        <v>1993</v>
       </c>
       <c r="D948" s="2"/>
     </row>
@@ -18628,10 +18667,10 @@
         <v>95</v>
       </c>
       <c r="B949" t="s" s="2">
+        <v>1993</v>
+      </c>
+      <c r="C949" t="s" s="2">
         <v>1994</v>
-      </c>
-      <c r="C949" t="s" s="2">
-        <v>1995</v>
       </c>
       <c r="D949" s="2"/>
     </row>
@@ -18640,10 +18679,10 @@
         <v>95</v>
       </c>
       <c r="B950" t="s" s="2">
+        <v>1995</v>
+      </c>
+      <c r="C950" t="s" s="2">
         <v>1996</v>
-      </c>
-      <c r="C950" t="s" s="2">
-        <v>1997</v>
       </c>
       <c r="D950" s="2"/>
     </row>
@@ -18652,10 +18691,10 @@
         <v>95</v>
       </c>
       <c r="B951" t="s" s="2">
+        <v>1997</v>
+      </c>
+      <c r="C951" t="s" s="2">
         <v>1998</v>
-      </c>
-      <c r="C951" t="s" s="2">
-        <v>1999</v>
       </c>
       <c r="D951" s="2"/>
     </row>
@@ -18664,10 +18703,10 @@
         <v>95</v>
       </c>
       <c r="B952" t="s" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C952" t="s" s="2">
         <v>2000</v>
-      </c>
-      <c r="C952" t="s" s="2">
-        <v>2001</v>
       </c>
       <c r="D952" s="2"/>
     </row>
@@ -18676,10 +18715,10 @@
         <v>95</v>
       </c>
       <c r="B953" t="s" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C953" t="s" s="2">
         <v>2002</v>
-      </c>
-      <c r="C953" t="s" s="2">
-        <v>2003</v>
       </c>
       <c r="D953" s="2"/>
     </row>
@@ -18688,10 +18727,10 @@
         <v>95</v>
       </c>
       <c r="B954" t="s" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C954" t="s" s="2">
         <v>2004</v>
-      </c>
-      <c r="C954" t="s" s="2">
-        <v>2005</v>
       </c>
       <c r="D954" s="2"/>
     </row>
@@ -18700,10 +18739,10 @@
         <v>95</v>
       </c>
       <c r="B955" t="s" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C955" t="s" s="2">
         <v>2006</v>
-      </c>
-      <c r="C955" t="s" s="2">
-        <v>2007</v>
       </c>
       <c r="D955" s="2"/>
     </row>
@@ -18712,10 +18751,10 @@
         <v>95</v>
       </c>
       <c r="B956" t="s" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C956" t="s" s="2">
         <v>2008</v>
-      </c>
-      <c r="C956" t="s" s="2">
-        <v>2009</v>
       </c>
       <c r="D956" s="2"/>
     </row>
@@ -18724,10 +18763,10 @@
         <v>95</v>
       </c>
       <c r="B957" t="s" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C957" t="s" s="2">
         <v>2010</v>
-      </c>
-      <c r="C957" t="s" s="2">
-        <v>2011</v>
       </c>
       <c r="D957" s="2"/>
     </row>
@@ -18736,10 +18775,10 @@
         <v>95</v>
       </c>
       <c r="B958" t="s" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C958" t="s" s="2">
         <v>2012</v>
-      </c>
-      <c r="C958" t="s" s="2">
-        <v>2013</v>
       </c>
       <c r="D958" s="2"/>
     </row>
@@ -18748,10 +18787,10 @@
         <v>95</v>
       </c>
       <c r="B959" t="s" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C959" t="s" s="2">
         <v>2014</v>
-      </c>
-      <c r="C959" t="s" s="2">
-        <v>2015</v>
       </c>
       <c r="D959" s="2"/>
     </row>
@@ -18760,10 +18799,10 @@
         <v>95</v>
       </c>
       <c r="B960" t="s" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C960" t="s" s="2">
         <v>2016</v>
-      </c>
-      <c r="C960" t="s" s="2">
-        <v>2017</v>
       </c>
       <c r="D960" s="2"/>
     </row>
@@ -18772,10 +18811,10 @@
         <v>95</v>
       </c>
       <c r="B961" t="s" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C961" t="s" s="2">
         <v>2018</v>
-      </c>
-      <c r="C961" t="s" s="2">
-        <v>2019</v>
       </c>
       <c r="D961" s="2"/>
     </row>
@@ -18784,10 +18823,10 @@
         <v>95</v>
       </c>
       <c r="B962" t="s" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C962" t="s" s="2">
         <v>2020</v>
-      </c>
-      <c r="C962" t="s" s="2">
-        <v>2021</v>
       </c>
       <c r="D962" s="2"/>
     </row>
@@ -18796,10 +18835,10 @@
         <v>95</v>
       </c>
       <c r="B963" t="s" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C963" t="s" s="2">
         <v>2022</v>
-      </c>
-      <c r="C963" t="s" s="2">
-        <v>2023</v>
       </c>
       <c r="D963" s="2"/>
     </row>
@@ -18808,10 +18847,10 @@
         <v>95</v>
       </c>
       <c r="B964" t="s" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C964" t="s" s="2">
         <v>2024</v>
-      </c>
-      <c r="C964" t="s" s="2">
-        <v>2025</v>
       </c>
       <c r="D964" s="2"/>
     </row>
@@ -18820,10 +18859,10 @@
         <v>95</v>
       </c>
       <c r="B965" t="s" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C965" t="s" s="2">
         <v>2026</v>
-      </c>
-      <c r="C965" t="s" s="2">
-        <v>2027</v>
       </c>
       <c r="D965" s="2"/>
     </row>
@@ -18832,10 +18871,10 @@
         <v>95</v>
       </c>
       <c r="B966" t="s" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C966" t="s" s="2">
         <v>2028</v>
-      </c>
-      <c r="C966" t="s" s="2">
-        <v>2029</v>
       </c>
       <c r="D966" s="2"/>
     </row>
@@ -18844,10 +18883,10 @@
         <v>95</v>
       </c>
       <c r="B967" t="s" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C967" t="s" s="2">
         <v>2030</v>
-      </c>
-      <c r="C967" t="s" s="2">
-        <v>2031</v>
       </c>
       <c r="D967" s="2"/>
     </row>
@@ -18856,10 +18895,10 @@
         <v>95</v>
       </c>
       <c r="B968" t="s" s="2">
+        <v>2031</v>
+      </c>
+      <c r="C968" t="s" s="2">
         <v>2032</v>
-      </c>
-      <c r="C968" t="s" s="2">
-        <v>2033</v>
       </c>
       <c r="D968" s="2"/>
     </row>
@@ -18868,10 +18907,10 @@
         <v>95</v>
       </c>
       <c r="B969" t="s" s="2">
+        <v>2033</v>
+      </c>
+      <c r="C969" t="s" s="2">
         <v>2034</v>
-      </c>
-      <c r="C969" t="s" s="2">
-        <v>2035</v>
       </c>
       <c r="D969" s="2"/>
     </row>
@@ -18880,10 +18919,10 @@
         <v>95</v>
       </c>
       <c r="B970" t="s" s="2">
+        <v>2035</v>
+      </c>
+      <c r="C970" t="s" s="2">
         <v>2036</v>
-      </c>
-      <c r="C970" t="s" s="2">
-        <v>2037</v>
       </c>
       <c r="D970" s="2"/>
     </row>
@@ -18892,10 +18931,10 @@
         <v>95</v>
       </c>
       <c r="B971" t="s" s="2">
+        <v>2037</v>
+      </c>
+      <c r="C971" t="s" s="2">
         <v>2038</v>
-      </c>
-      <c r="C971" t="s" s="2">
-        <v>2039</v>
       </c>
       <c r="D971" s="2"/>
     </row>
@@ -18904,10 +18943,10 @@
         <v>95</v>
       </c>
       <c r="B972" t="s" s="2">
+        <v>2039</v>
+      </c>
+      <c r="C972" t="s" s="2">
         <v>2040</v>
-      </c>
-      <c r="C972" t="s" s="2">
-        <v>2041</v>
       </c>
       <c r="D972" s="2"/>
     </row>
@@ -18916,10 +18955,10 @@
         <v>95</v>
       </c>
       <c r="B973" t="s" s="2">
+        <v>2041</v>
+      </c>
+      <c r="C973" t="s" s="2">
         <v>2042</v>
-      </c>
-      <c r="C973" t="s" s="2">
-        <v>2043</v>
       </c>
       <c r="D973" s="2"/>
     </row>
@@ -18928,10 +18967,10 @@
         <v>95</v>
       </c>
       <c r="B974" t="s" s="2">
+        <v>2043</v>
+      </c>
+      <c r="C974" t="s" s="2">
         <v>2044</v>
-      </c>
-      <c r="C974" t="s" s="2">
-        <v>2045</v>
       </c>
       <c r="D974" s="2"/>
     </row>
@@ -18940,10 +18979,10 @@
         <v>95</v>
       </c>
       <c r="B975" t="s" s="2">
+        <v>2045</v>
+      </c>
+      <c r="C975" t="s" s="2">
         <v>2046</v>
-      </c>
-      <c r="C975" t="s" s="2">
-        <v>2047</v>
       </c>
       <c r="D975" s="2"/>
     </row>
@@ -18952,10 +18991,10 @@
         <v>95</v>
       </c>
       <c r="B976" t="s" s="2">
+        <v>2047</v>
+      </c>
+      <c r="C976" t="s" s="2">
         <v>2048</v>
-      </c>
-      <c r="C976" t="s" s="2">
-        <v>2049</v>
       </c>
       <c r="D976" s="2"/>
     </row>
@@ -18964,10 +19003,10 @@
         <v>95</v>
       </c>
       <c r="B977" t="s" s="2">
+        <v>2049</v>
+      </c>
+      <c r="C977" t="s" s="2">
         <v>2050</v>
-      </c>
-      <c r="C977" t="s" s="2">
-        <v>2051</v>
       </c>
       <c r="D977" s="2"/>
     </row>
@@ -18976,10 +19015,10 @@
         <v>95</v>
       </c>
       <c r="B978" t="s" s="2">
+        <v>2051</v>
+      </c>
+      <c r="C978" t="s" s="2">
         <v>2052</v>
-      </c>
-      <c r="C978" t="s" s="2">
-        <v>2053</v>
       </c>
       <c r="D978" s="2"/>
     </row>
@@ -18988,10 +19027,10 @@
         <v>95</v>
       </c>
       <c r="B979" t="s" s="2">
+        <v>2053</v>
+      </c>
+      <c r="C979" t="s" s="2">
         <v>2054</v>
-      </c>
-      <c r="C979" t="s" s="2">
-        <v>2055</v>
       </c>
       <c r="D979" s="2"/>
     </row>
@@ -19000,10 +19039,10 @@
         <v>95</v>
       </c>
       <c r="B980" t="s" s="2">
+        <v>2055</v>
+      </c>
+      <c r="C980" t="s" s="2">
         <v>2056</v>
-      </c>
-      <c r="C980" t="s" s="2">
-        <v>2057</v>
       </c>
       <c r="D980" s="2"/>
     </row>
@@ -19012,10 +19051,10 @@
         <v>95</v>
       </c>
       <c r="B981" t="s" s="2">
+        <v>2057</v>
+      </c>
+      <c r="C981" t="s" s="2">
         <v>2058</v>
-      </c>
-      <c r="C981" t="s" s="2">
-        <v>2059</v>
       </c>
       <c r="D981" s="2"/>
     </row>
@@ -19024,10 +19063,10 @@
         <v>95</v>
       </c>
       <c r="B982" t="s" s="2">
+        <v>2059</v>
+      </c>
+      <c r="C982" t="s" s="2">
         <v>2060</v>
-      </c>
-      <c r="C982" t="s" s="2">
-        <v>2061</v>
       </c>
       <c r="D982" s="2"/>
     </row>
@@ -19036,10 +19075,10 @@
         <v>95</v>
       </c>
       <c r="B983" t="s" s="2">
+        <v>2061</v>
+      </c>
+      <c r="C983" t="s" s="2">
         <v>2062</v>
-      </c>
-      <c r="C983" t="s" s="2">
-        <v>2063</v>
       </c>
       <c r="D983" s="2"/>
     </row>
@@ -19048,10 +19087,10 @@
         <v>95</v>
       </c>
       <c r="B984" t="s" s="2">
+        <v>2063</v>
+      </c>
+      <c r="C984" t="s" s="2">
         <v>2064</v>
-      </c>
-      <c r="C984" t="s" s="2">
-        <v>2065</v>
       </c>
       <c r="D984" s="2"/>
     </row>
@@ -19060,10 +19099,10 @@
         <v>95</v>
       </c>
       <c r="B985" t="s" s="2">
+        <v>2065</v>
+      </c>
+      <c r="C985" t="s" s="2">
         <v>2066</v>
-      </c>
-      <c r="C985" t="s" s="2">
-        <v>2067</v>
       </c>
       <c r="D985" s="2"/>
     </row>
@@ -19072,10 +19111,10 @@
         <v>95</v>
       </c>
       <c r="B986" t="s" s="2">
+        <v>2067</v>
+      </c>
+      <c r="C986" t="s" s="2">
         <v>2068</v>
-      </c>
-      <c r="C986" t="s" s="2">
-        <v>2069</v>
       </c>
       <c r="D986" s="2"/>
     </row>
@@ -19084,10 +19123,10 @@
         <v>95</v>
       </c>
       <c r="B987" t="s" s="2">
+        <v>2069</v>
+      </c>
+      <c r="C987" t="s" s="2">
         <v>2070</v>
-      </c>
-      <c r="C987" t="s" s="2">
-        <v>2071</v>
       </c>
       <c r="D987" s="2"/>
     </row>
@@ -19096,10 +19135,10 @@
         <v>95</v>
       </c>
       <c r="B988" t="s" s="2">
+        <v>2071</v>
+      </c>
+      <c r="C988" t="s" s="2">
         <v>2072</v>
-      </c>
-      <c r="C988" t="s" s="2">
-        <v>2073</v>
       </c>
       <c r="D988" s="2"/>
     </row>
@@ -19108,24 +19147,22 @@
         <v>95</v>
       </c>
       <c r="B989" t="s" s="2">
+        <v>2073</v>
+      </c>
+      <c r="C989" t="s" s="2">
         <v>2074</v>
       </c>
-      <c r="C989" t="s" s="2">
-        <v>2075</v>
-      </c>
-      <c r="D989" t="s" s="2">
-        <v>2076</v>
-      </c>
+      <c r="D989" s="2"/>
     </row>
     <row r="990">
       <c r="A990" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B990" t="s" s="2">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C990" t="s" s="2">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D990" s="2"/>
     </row>
@@ -19134,10 +19171,10 @@
         <v>95</v>
       </c>
       <c r="B991" t="s" s="2">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C991" t="s" s="2">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D991" s="2"/>
     </row>
@@ -19146,10 +19183,10 @@
         <v>95</v>
       </c>
       <c r="B992" t="s" s="2">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C992" t="s" s="2">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D992" s="2"/>
     </row>
@@ -19158,10 +19195,10 @@
         <v>95</v>
       </c>
       <c r="B993" t="s" s="2">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C993" t="s" s="2">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D993" s="2"/>
     </row>
@@ -19170,10 +19207,10 @@
         <v>95</v>
       </c>
       <c r="B994" t="s" s="2">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C994" t="s" s="2">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D994" s="2"/>
     </row>
@@ -19182,10 +19219,10 @@
         <v>95</v>
       </c>
       <c r="B995" t="s" s="2">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C995" t="s" s="2">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D995" s="2"/>
     </row>
@@ -19194,22 +19231,24 @@
         <v>95</v>
       </c>
       <c r="B996" t="s" s="2">
+        <v>2087</v>
+      </c>
+      <c r="C996" t="s" s="2">
+        <v>2088</v>
+      </c>
+      <c r="D996" t="s" s="2">
         <v>2089</v>
       </c>
-      <c r="C996" t="s" s="2">
-        <v>2090</v>
-      </c>
-      <c r="D996" s="2"/>
     </row>
     <row r="997">
       <c r="A997" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B997" t="s" s="2">
+        <v>2090</v>
+      </c>
+      <c r="C997" t="s" s="2">
         <v>2091</v>
-      </c>
-      <c r="C997" t="s" s="2">
-        <v>2092</v>
       </c>
       <c r="D997" s="2"/>
     </row>
@@ -19218,7 +19257,7 @@
         <v>95</v>
       </c>
       <c r="B998" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C998" t="s" s="2">
         <v>2093</v>
@@ -19271,19 +19310,17 @@
       <c r="C1002" t="s" s="2">
         <v>2101</v>
       </c>
-      <c r="D1002" t="s" s="2">
-        <v>2102</v>
-      </c>
+      <c r="D1002" s="2"/>
     </row>
     <row r="1003">
       <c r="A1003" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B1003" t="s" s="2">
+        <v>2102</v>
+      </c>
+      <c r="C1003" t="s" s="2">
         <v>2103</v>
-      </c>
-      <c r="C1003" t="s" s="2">
-        <v>2104</v>
       </c>
       <c r="D1003" s="2"/>
     </row>
@@ -19292,10 +19329,10 @@
         <v>95</v>
       </c>
       <c r="B1004" t="s" s="2">
+        <v>2104</v>
+      </c>
+      <c r="C1004" t="s" s="2">
         <v>2105</v>
-      </c>
-      <c r="C1004" t="s" s="2">
-        <v>2106</v>
       </c>
       <c r="D1004" s="2"/>
     </row>
@@ -19304,10 +19341,10 @@
         <v>95</v>
       </c>
       <c r="B1005" t="s" s="2">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C1005" t="s" s="2">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="D1005" s="2"/>
     </row>
@@ -19316,10 +19353,10 @@
         <v>95</v>
       </c>
       <c r="B1006" t="s" s="2">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C1006" t="s" s="2">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D1006" s="2"/>
     </row>
@@ -19328,10 +19365,10 @@
         <v>95</v>
       </c>
       <c r="B1007" t="s" s="2">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="C1007" t="s" s="2">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D1007" s="2"/>
     </row>
@@ -19340,10 +19377,10 @@
         <v>95</v>
       </c>
       <c r="B1008" t="s" s="2">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="C1008" t="s" s="2">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="D1008" s="2"/>
     </row>
@@ -19352,22 +19389,24 @@
         <v>95</v>
       </c>
       <c r="B1009" t="s" s="2">
+        <v>2113</v>
+      </c>
+      <c r="C1009" t="s" s="2">
+        <v>2114</v>
+      </c>
+      <c r="D1009" t="s" s="2">
         <v>2115</v>
       </c>
-      <c r="C1009" t="s" s="2">
-        <v>2116</v>
-      </c>
-      <c r="D1009" s="2"/>
     </row>
     <row r="1010">
       <c r="A1010" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B1010" t="s" s="2">
+        <v>2116</v>
+      </c>
+      <c r="C1010" t="s" s="2">
         <v>2117</v>
-      </c>
-      <c r="C1010" t="s" s="2">
-        <v>2118</v>
       </c>
       <c r="D1010" s="2"/>
     </row>
@@ -19376,10 +19415,10 @@
         <v>95</v>
       </c>
       <c r="B1011" t="s" s="2">
+        <v>2118</v>
+      </c>
+      <c r="C1011" t="s" s="2">
         <v>2119</v>
-      </c>
-      <c r="C1011" t="s" s="2">
-        <v>2120</v>
       </c>
       <c r="D1011" s="2"/>
     </row>
@@ -19388,10 +19427,10 @@
         <v>95</v>
       </c>
       <c r="B1012" t="s" s="2">
+        <v>2120</v>
+      </c>
+      <c r="C1012" t="s" s="2">
         <v>2121</v>
-      </c>
-      <c r="C1012" t="s" s="2">
-        <v>2122</v>
       </c>
       <c r="D1012" s="2"/>
     </row>
@@ -19400,10 +19439,10 @@
         <v>95</v>
       </c>
       <c r="B1013" t="s" s="2">
+        <v>2122</v>
+      </c>
+      <c r="C1013" t="s" s="2">
         <v>2123</v>
-      </c>
-      <c r="C1013" t="s" s="2">
-        <v>2124</v>
       </c>
       <c r="D1013" s="2"/>
     </row>
@@ -19412,10 +19451,10 @@
         <v>95</v>
       </c>
       <c r="B1014" t="s" s="2">
+        <v>2124</v>
+      </c>
+      <c r="C1014" t="s" s="2">
         <v>2125</v>
-      </c>
-      <c r="C1014" t="s" s="2">
-        <v>2126</v>
       </c>
       <c r="D1014" s="2"/>
     </row>
@@ -19424,10 +19463,10 @@
         <v>95</v>
       </c>
       <c r="B1015" t="s" s="2">
+        <v>2126</v>
+      </c>
+      <c r="C1015" t="s" s="2">
         <v>2127</v>
-      </c>
-      <c r="C1015" t="s" s="2">
-        <v>2128</v>
       </c>
       <c r="D1015" s="2"/>
     </row>
@@ -19436,10 +19475,10 @@
         <v>95</v>
       </c>
       <c r="B1016" t="s" s="2">
+        <v>2128</v>
+      </c>
+      <c r="C1016" t="s" s="2">
         <v>2129</v>
-      </c>
-      <c r="C1016" t="s" s="2">
-        <v>2130</v>
       </c>
       <c r="D1016" s="2"/>
     </row>
@@ -19448,10 +19487,10 @@
         <v>95</v>
       </c>
       <c r="B1017" t="s" s="2">
+        <v>2130</v>
+      </c>
+      <c r="C1017" t="s" s="2">
         <v>2131</v>
-      </c>
-      <c r="C1017" t="s" s="2">
-        <v>2132</v>
       </c>
       <c r="D1017" s="2"/>
     </row>
@@ -19460,10 +19499,10 @@
         <v>95</v>
       </c>
       <c r="B1018" t="s" s="2">
+        <v>2132</v>
+      </c>
+      <c r="C1018" t="s" s="2">
         <v>2133</v>
-      </c>
-      <c r="C1018" t="s" s="2">
-        <v>2134</v>
       </c>
       <c r="D1018" s="2"/>
     </row>
@@ -19472,10 +19511,10 @@
         <v>95</v>
       </c>
       <c r="B1019" t="s" s="2">
+        <v>2134</v>
+      </c>
+      <c r="C1019" t="s" s="2">
         <v>2135</v>
-      </c>
-      <c r="C1019" t="s" s="2">
-        <v>2136</v>
       </c>
       <c r="D1019" s="2"/>
     </row>
@@ -19484,10 +19523,10 @@
         <v>95</v>
       </c>
       <c r="B1020" t="s" s="2">
+        <v>2136</v>
+      </c>
+      <c r="C1020" t="s" s="2">
         <v>2137</v>
-      </c>
-      <c r="C1020" t="s" s="2">
-        <v>2138</v>
       </c>
       <c r="D1020" s="2"/>
     </row>
@@ -19496,10 +19535,10 @@
         <v>95</v>
       </c>
       <c r="B1021" t="s" s="2">
+        <v>2138</v>
+      </c>
+      <c r="C1021" t="s" s="2">
         <v>2139</v>
-      </c>
-      <c r="C1021" t="s" s="2">
-        <v>2140</v>
       </c>
       <c r="D1021" s="2"/>
     </row>
@@ -19508,10 +19547,10 @@
         <v>95</v>
       </c>
       <c r="B1022" t="s" s="2">
+        <v>2140</v>
+      </c>
+      <c r="C1022" t="s" s="2">
         <v>2141</v>
-      </c>
-      <c r="C1022" t="s" s="2">
-        <v>2142</v>
       </c>
       <c r="D1022" s="2"/>
     </row>
@@ -19520,10 +19559,10 @@
         <v>95</v>
       </c>
       <c r="B1023" t="s" s="2">
+        <v>2142</v>
+      </c>
+      <c r="C1023" t="s" s="2">
         <v>2143</v>
-      </c>
-      <c r="C1023" t="s" s="2">
-        <v>2144</v>
       </c>
       <c r="D1023" s="2"/>
     </row>
@@ -19532,10 +19571,10 @@
         <v>95</v>
       </c>
       <c r="B1024" t="s" s="2">
+        <v>2144</v>
+      </c>
+      <c r="C1024" t="s" s="2">
         <v>2145</v>
-      </c>
-      <c r="C1024" t="s" s="2">
-        <v>2146</v>
       </c>
       <c r="D1024" s="2"/>
     </row>
@@ -19544,10 +19583,10 @@
         <v>95</v>
       </c>
       <c r="B1025" t="s" s="2">
+        <v>2146</v>
+      </c>
+      <c r="C1025" t="s" s="2">
         <v>2147</v>
-      </c>
-      <c r="C1025" t="s" s="2">
-        <v>2148</v>
       </c>
       <c r="D1025" s="2"/>
     </row>
@@ -19556,10 +19595,10 @@
         <v>95</v>
       </c>
       <c r="B1026" t="s" s="2">
+        <v>2148</v>
+      </c>
+      <c r="C1026" t="s" s="2">
         <v>2149</v>
-      </c>
-      <c r="C1026" t="s" s="2">
-        <v>2150</v>
       </c>
       <c r="D1026" s="2"/>
     </row>
@@ -19568,10 +19607,10 @@
         <v>95</v>
       </c>
       <c r="B1027" t="s" s="2">
+        <v>2150</v>
+      </c>
+      <c r="C1027" t="s" s="2">
         <v>2151</v>
-      </c>
-      <c r="C1027" t="s" s="2">
-        <v>2152</v>
       </c>
       <c r="D1027" s="2"/>
     </row>
@@ -19580,10 +19619,10 @@
         <v>95</v>
       </c>
       <c r="B1028" t="s" s="2">
+        <v>2152</v>
+      </c>
+      <c r="C1028" t="s" s="2">
         <v>2153</v>
-      </c>
-      <c r="C1028" t="s" s="2">
-        <v>2154</v>
       </c>
       <c r="D1028" s="2"/>
     </row>
@@ -19592,10 +19631,10 @@
         <v>95</v>
       </c>
       <c r="B1029" t="s" s="2">
+        <v>2154</v>
+      </c>
+      <c r="C1029" t="s" s="2">
         <v>2155</v>
-      </c>
-      <c r="C1029" t="s" s="2">
-        <v>2156</v>
       </c>
       <c r="D1029" s="2"/>
     </row>
@@ -19604,10 +19643,10 @@
         <v>95</v>
       </c>
       <c r="B1030" t="s" s="2">
+        <v>2156</v>
+      </c>
+      <c r="C1030" t="s" s="2">
         <v>2157</v>
-      </c>
-      <c r="C1030" t="s" s="2">
-        <v>2158</v>
       </c>
       <c r="D1030" s="2"/>
     </row>
@@ -19616,10 +19655,10 @@
         <v>95</v>
       </c>
       <c r="B1031" t="s" s="2">
+        <v>2158</v>
+      </c>
+      <c r="C1031" t="s" s="2">
         <v>2159</v>
-      </c>
-      <c r="C1031" t="s" s="2">
-        <v>2160</v>
       </c>
       <c r="D1031" s="2"/>
     </row>
@@ -19628,10 +19667,10 @@
         <v>95</v>
       </c>
       <c r="B1032" t="s" s="2">
+        <v>2160</v>
+      </c>
+      <c r="C1032" t="s" s="2">
         <v>2161</v>
-      </c>
-      <c r="C1032" t="s" s="2">
-        <v>2162</v>
       </c>
       <c r="D1032" s="2"/>
     </row>
@@ -19640,10 +19679,10 @@
         <v>95</v>
       </c>
       <c r="B1033" t="s" s="2">
+        <v>2162</v>
+      </c>
+      <c r="C1033" t="s" s="2">
         <v>2163</v>
-      </c>
-      <c r="C1033" t="s" s="2">
-        <v>2164</v>
       </c>
       <c r="D1033" s="2"/>
     </row>
@@ -19652,10 +19691,10 @@
         <v>95</v>
       </c>
       <c r="B1034" t="s" s="2">
+        <v>2164</v>
+      </c>
+      <c r="C1034" t="s" s="2">
         <v>2165</v>
-      </c>
-      <c r="C1034" t="s" s="2">
-        <v>2166</v>
       </c>
       <c r="D1034" s="2"/>
     </row>
@@ -19664,10 +19703,10 @@
         <v>95</v>
       </c>
       <c r="B1035" t="s" s="2">
+        <v>2166</v>
+      </c>
+      <c r="C1035" t="s" s="2">
         <v>2167</v>
-      </c>
-      <c r="C1035" t="s" s="2">
-        <v>2168</v>
       </c>
       <c r="D1035" s="2"/>
     </row>
@@ -19676,10 +19715,10 @@
         <v>95</v>
       </c>
       <c r="B1036" t="s" s="2">
+        <v>2168</v>
+      </c>
+      <c r="C1036" t="s" s="2">
         <v>2169</v>
-      </c>
-      <c r="C1036" t="s" s="2">
-        <v>2170</v>
       </c>
       <c r="D1036" s="2"/>
     </row>
@@ -19688,10 +19727,10 @@
         <v>95</v>
       </c>
       <c r="B1037" t="s" s="2">
+        <v>2170</v>
+      </c>
+      <c r="C1037" t="s" s="2">
         <v>2171</v>
-      </c>
-      <c r="C1037" t="s" s="2">
-        <v>2172</v>
       </c>
       <c r="D1037" s="2"/>
     </row>
@@ -19700,10 +19739,10 @@
         <v>95</v>
       </c>
       <c r="B1038" t="s" s="2">
+        <v>2172</v>
+      </c>
+      <c r="C1038" t="s" s="2">
         <v>2173</v>
-      </c>
-      <c r="C1038" t="s" s="2">
-        <v>2174</v>
       </c>
       <c r="D1038" s="2"/>
     </row>
@@ -19712,10 +19751,10 @@
         <v>95</v>
       </c>
       <c r="B1039" t="s" s="2">
+        <v>2174</v>
+      </c>
+      <c r="C1039" t="s" s="2">
         <v>2175</v>
-      </c>
-      <c r="C1039" t="s" s="2">
-        <v>2176</v>
       </c>
       <c r="D1039" s="2"/>
     </row>
@@ -19724,10 +19763,10 @@
         <v>95</v>
       </c>
       <c r="B1040" t="s" s="2">
+        <v>2176</v>
+      </c>
+      <c r="C1040" t="s" s="2">
         <v>2177</v>
-      </c>
-      <c r="C1040" t="s" s="2">
-        <v>2178</v>
       </c>
       <c r="D1040" s="2"/>
     </row>
@@ -19736,10 +19775,10 @@
         <v>95</v>
       </c>
       <c r="B1041" t="s" s="2">
+        <v>2178</v>
+      </c>
+      <c r="C1041" t="s" s="2">
         <v>2179</v>
-      </c>
-      <c r="C1041" t="s" s="2">
-        <v>2180</v>
       </c>
       <c r="D1041" s="2"/>
     </row>
@@ -19748,10 +19787,10 @@
         <v>95</v>
       </c>
       <c r="B1042" t="s" s="2">
+        <v>2180</v>
+      </c>
+      <c r="C1042" t="s" s="2">
         <v>2181</v>
-      </c>
-      <c r="C1042" t="s" s="2">
-        <v>2182</v>
       </c>
       <c r="D1042" s="2"/>
     </row>
@@ -19760,10 +19799,10 @@
         <v>95</v>
       </c>
       <c r="B1043" t="s" s="2">
+        <v>2182</v>
+      </c>
+      <c r="C1043" t="s" s="2">
         <v>2183</v>
-      </c>
-      <c r="C1043" t="s" s="2">
-        <v>2184</v>
       </c>
       <c r="D1043" s="2"/>
     </row>
@@ -19772,12 +19811,96 @@
         <v>95</v>
       </c>
       <c r="B1044" t="s" s="2">
+        <v>2184</v>
+      </c>
+      <c r="C1044" t="s" s="2">
         <v>2185</v>
       </c>
-      <c r="C1044" t="s" s="2">
+      <c r="D1044" s="2"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1045" t="s" s="2">
         <v>2186</v>
       </c>
-      <c r="D1044" s="2"/>
+      <c r="C1045" t="s" s="2">
+        <v>2187</v>
+      </c>
+      <c r="D1045" s="2"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1046" t="s" s="2">
+        <v>2188</v>
+      </c>
+      <c r="C1046" t="s" s="2">
+        <v>2189</v>
+      </c>
+      <c r="D1046" s="2"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1047" t="s" s="2">
+        <v>2190</v>
+      </c>
+      <c r="C1047" t="s" s="2">
+        <v>2191</v>
+      </c>
+      <c r="D1047" s="2"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1048" t="s" s="2">
+        <v>2192</v>
+      </c>
+      <c r="C1048" t="s" s="2">
+        <v>2193</v>
+      </c>
+      <c r="D1048" s="2"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1049" t="s" s="2">
+        <v>2194</v>
+      </c>
+      <c r="C1049" t="s" s="2">
+        <v>2195</v>
+      </c>
+      <c r="D1049" s="2"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1050" t="s" s="2">
+        <v>2196</v>
+      </c>
+      <c r="C1050" t="s" s="2">
+        <v>2197</v>
+      </c>
+      <c r="D1050" s="2"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B1051" t="s" s="2">
+        <v>2198</v>
+      </c>
+      <c r="C1051" t="s" s="2">
+        <v>2199</v>
+      </c>
+      <c r="D1051" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-terminologie-nabm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-nabm.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>V98</t>
+    <t>V99</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T00:00:00+00:00</t>
+    <t>2025-09-08T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4343,7 +4343,7 @@
     <t>4103</t>
   </si>
   <si>
-    <t>TEST DE DETECTION DE LA PRODUCTION D'INTERFERON GAMMA (IGRA)</t>
+    <t>IGRA:TEST DE DETECTION DE LA PRODUCTION D'INTERFERON GAMMA</t>
   </si>
   <si>
     <t>0290</t>
